--- a/Mazos_vertes_pirkimai_2014.xlsx
+++ b/Mazos_vertes_pirkimai_2014.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3157" uniqueCount="1092">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3157" uniqueCount="1091">
   <si>
     <t>Informacinių technologijų skyrius</t>
   </si>
@@ -2331,9 +2331,6 @@
   </si>
   <si>
     <t>Aktyvios gaisrinės saugos priemonės, evakuaciniai planai ir gesintuvų patikra</t>
-  </si>
-  <si>
-    <t>Ne per CPO; 50800000-3</t>
   </si>
   <si>
     <t>Darbuotojų saugos ir sveikatos, gaisrinės saugos instrukcijos</t>
@@ -3366,7 +3363,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3389,6 +3386,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Įprastas" xfId="0" builtinId="0"/>
@@ -3693,7 +3697,7 @@
   <dimension ref="A1:M318"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H1" sqref="H1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3704,8 +3708,8 @@
     <col min="5" max="5" width="21.42578125" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" customWidth="1"/>
     <col min="7" max="7" width="28" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="10" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="10" customWidth="1"/>
     <col min="10" max="10" width="34.28515625" customWidth="1"/>
     <col min="11" max="11" width="31.7109375" customWidth="1"/>
     <col min="12" max="12" width="13.140625" customWidth="1"/>
@@ -3714,43 +3718,43 @@
   <sheetData>
     <row r="1" spans="1:13" s="6" customFormat="1" ht="78.75">
       <c r="A1" s="5" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1011</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>1012</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="E1" s="5" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>1015</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>1013</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>1014</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>1016</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="8" t="s">
         <v>1017</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="8" t="s">
         <v>1018</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>1019</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>1020</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="7" t="s">
+        <v>1030</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>1021</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>1031</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>1022</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="6" customFormat="1" ht="25.5">
@@ -3764,7 +3768,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>7</v>
@@ -3772,10 +3776,10 @@
       <c r="G2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="9">
         <v>1737.72</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="9">
         <v>1737.72</v>
       </c>
       <c r="J2" s="6" t="s">
@@ -3799,7 +3803,7 @@
         <v>22</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>23</v>
@@ -3807,10 +3811,10 @@
       <c r="G3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="9">
         <v>2368.98</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="9">
         <v>2368.98</v>
       </c>
       <c r="J3" s="6" t="s">
@@ -3837,7 +3841,7 @@
         <v>34</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>35</v>
@@ -3845,10 +3849,10 @@
       <c r="G4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="9">
         <v>11534.4</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="9">
         <v>11534.4</v>
       </c>
       <c r="J4" s="6" t="s">
@@ -3886,10 +3890,10 @@
       <c r="G5" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="9">
         <v>141.91</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="9">
         <v>141.91</v>
       </c>
       <c r="J5" s="6" t="s">
@@ -3916,7 +3920,7 @@
         <v>77</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>78</v>
@@ -3924,10 +3928,10 @@
       <c r="G6" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="9">
         <v>3498.61</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="9">
         <v>3504.4</v>
       </c>
       <c r="J6" s="6" t="s">
@@ -3954,7 +3958,7 @@
         <v>84</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>85</v>
@@ -3962,10 +3966,10 @@
       <c r="G7" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="9">
         <v>579.24</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="9">
         <v>579.24</v>
       </c>
       <c r="J7" s="6" t="s">
@@ -3992,7 +3996,7 @@
         <v>84</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>90</v>
@@ -4000,10 +4004,10 @@
       <c r="G8" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="9">
         <v>434.43</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="9">
         <v>434.43</v>
       </c>
       <c r="J8" s="6" t="s">
@@ -4030,7 +4034,7 @@
         <v>94</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>90</v>
@@ -4038,10 +4042,10 @@
       <c r="G9" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="9">
         <v>3504.4</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="9">
         <v>3504.4</v>
       </c>
       <c r="J9" s="6" t="s">
@@ -4068,18 +4072,18 @@
         <v>100</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>101</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>1032</v>
-      </c>
-      <c r="H10" s="6">
+        <v>1031</v>
+      </c>
+      <c r="H10" s="9">
         <v>26.28</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="9">
         <v>8688.6</v>
       </c>
       <c r="J10" s="6" t="s">
@@ -4106,7 +4110,7 @@
         <v>118</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>101</v>
@@ -4114,10 +4118,10 @@
       <c r="G11" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="9">
         <v>3504.4</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="9">
         <v>3504.4</v>
       </c>
       <c r="J11" s="6" t="s">
@@ -4144,7 +4148,7 @@
         <v>123</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>18</v>
@@ -4152,10 +4156,10 @@
       <c r="G12" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="9">
         <v>1752.2</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="9">
         <v>1752.2</v>
       </c>
       <c r="J12" s="6" t="s">
@@ -4190,10 +4194,10 @@
       <c r="G13" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="9">
         <v>2026.08</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="9">
         <v>2026.08</v>
       </c>
       <c r="J13" s="6" t="s">
@@ -4220,15 +4224,15 @@
         <v>133</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="9">
         <v>2878.82</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="9">
         <v>2878.82</v>
       </c>
       <c r="J14" s="6" t="s">
@@ -4255,7 +4259,7 @@
         <v>137</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>20</v>
@@ -4263,10 +4267,10 @@
       <c r="G15" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="9">
         <v>2809.31</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="9">
         <v>2809.31</v>
       </c>
       <c r="J15" s="6" t="s">
@@ -4293,7 +4297,7 @@
         <v>145</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>103</v>
@@ -4301,17 +4305,17 @@
       <c r="G16" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="9">
         <v>2131.6</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="9">
         <v>2102.64</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="L16" s="6" t="s">
         <v>15</v>
@@ -4331,15 +4335,15 @@
         <v>22</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="9">
         <v>3165</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="9">
         <v>3165</v>
       </c>
       <c r="J17" s="6" t="s">
@@ -4366,7 +4370,7 @@
         <v>157</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>158</v>
@@ -4374,10 +4378,10 @@
       <c r="G18" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="9">
         <v>2896.2</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="9">
         <v>2896.2</v>
       </c>
       <c r="J18" s="6" t="s">
@@ -4404,7 +4408,7 @@
         <v>161</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>44</v>
@@ -4412,10 +4416,10 @@
       <c r="G19" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="H19" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19" s="9">
         <v>790.66</v>
       </c>
       <c r="J19" s="6" t="s">
@@ -4442,7 +4446,7 @@
         <v>157</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>168</v>
@@ -4450,10 +4454,10 @@
       <c r="G20" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="9">
         <v>243.83</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="9">
         <v>243.83</v>
       </c>
       <c r="J20" s="6" t="s">
@@ -4486,12 +4490,12 @@
         <v>73</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>1034</v>
-      </c>
-      <c r="H21" s="6">
+        <v>1033</v>
+      </c>
+      <c r="H21" s="9">
         <v>13901.76</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21" s="9">
         <v>13901.76</v>
       </c>
       <c r="J21" s="6" t="s">
@@ -4529,10 +4533,10 @@
       <c r="G22" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="9">
         <v>574.53</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22" s="9">
         <v>574.53</v>
       </c>
       <c r="J22" s="6" t="s">
@@ -4568,12 +4572,12 @@
         <v>174</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>1035</v>
-      </c>
-      <c r="H23" s="6" t="s">
+        <v>1034</v>
+      </c>
+      <c r="H23" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I23" s="9">
         <v>2277.86</v>
       </c>
       <c r="J23" s="6" t="s">
@@ -4611,10 +4615,10 @@
       <c r="G24" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="9">
         <v>4471.7</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I24" s="9">
         <v>4471.7</v>
       </c>
       <c r="J24" s="6" t="s">
@@ -4641,7 +4645,7 @@
         <v>137</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>192</v>
@@ -4649,10 +4653,10 @@
       <c r="G25" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="9">
         <v>4065.11</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I25" s="9">
         <v>4065.11</v>
       </c>
       <c r="J25" s="6" t="s">
@@ -4679,15 +4683,15 @@
         <v>198</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="9">
         <v>3955.2</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I26" s="9">
         <v>3955.2</v>
       </c>
       <c r="J26" s="6" t="s">
@@ -4714,7 +4718,7 @@
         <v>203</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>144</v>
@@ -4722,10 +4726,10 @@
       <c r="G27" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27" s="9">
         <v>1419</v>
       </c>
-      <c r="I27" s="6">
+      <c r="I27" s="9">
         <v>1419</v>
       </c>
       <c r="J27" s="6" t="s">
@@ -4752,7 +4756,7 @@
         <v>208</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>209</v>
@@ -4760,10 +4764,10 @@
       <c r="G28" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28" s="9">
         <v>398.23</v>
       </c>
-      <c r="I28" s="6">
+      <c r="I28" s="9">
         <v>398.23</v>
       </c>
       <c r="J28" s="6" t="s">
@@ -4790,15 +4794,15 @@
         <v>22</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H29" s="9">
         <v>2805</v>
       </c>
-      <c r="I29" s="6">
+      <c r="I29" s="9">
         <v>2805</v>
       </c>
       <c r="J29" s="6" t="s">
@@ -4834,12 +4838,12 @@
         <v>228</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>1036</v>
-      </c>
-      <c r="H30" s="6">
+        <v>1035</v>
+      </c>
+      <c r="H30" s="9">
         <v>753.01</v>
       </c>
-      <c r="I30" s="6">
+      <c r="I30" s="9">
         <v>753.01</v>
       </c>
       <c r="J30" s="6" t="s">
@@ -4866,7 +4870,7 @@
         <v>235</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>236</v>
@@ -4874,10 +4878,10 @@
       <c r="G31" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="H31" s="6">
+      <c r="H31" s="9">
         <v>2896.2</v>
       </c>
-      <c r="I31" s="6">
+      <c r="I31" s="9">
         <v>2896.2</v>
       </c>
       <c r="J31" s="6" t="s">
@@ -4904,7 +4908,7 @@
         <v>47</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>239</v>
@@ -4912,10 +4916,10 @@
       <c r="G32" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H32" s="9">
         <v>140.18</v>
       </c>
-      <c r="I32" s="6">
+      <c r="I32" s="9">
         <v>140.18</v>
       </c>
       <c r="J32" s="6" t="s">
@@ -4942,7 +4946,7 @@
         <v>242</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>178</v>
@@ -4950,10 +4954,10 @@
       <c r="G33" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="H33" s="6">
+      <c r="H33" s="9">
         <v>8688.6</v>
       </c>
-      <c r="I33" s="6">
+      <c r="I33" s="9">
         <v>8688.6</v>
       </c>
       <c r="J33" s="6" t="s">
@@ -4980,18 +4984,18 @@
         <v>6</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>65</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>1037</v>
-      </c>
-      <c r="H34" s="6">
+        <v>1036</v>
+      </c>
+      <c r="H34" s="9">
         <v>5792.4</v>
       </c>
-      <c r="I34" s="6">
+      <c r="I34" s="9">
         <v>5792.4</v>
       </c>
       <c r="J34" s="6" t="s">
@@ -5018,15 +5022,15 @@
         <v>6</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>1037</v>
-      </c>
-      <c r="H35" s="6">
+        <v>1036</v>
+      </c>
+      <c r="H35" s="9">
         <v>5792.4</v>
       </c>
-      <c r="I35" s="6">
+      <c r="I35" s="9">
         <v>5792.4</v>
       </c>
       <c r="J35" s="6" t="s">
@@ -5053,15 +5057,15 @@
         <v>258</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="H36" s="6">
+      <c r="H36" s="9">
         <v>7744</v>
       </c>
-      <c r="I36" s="6">
+      <c r="I36" s="9">
         <v>7744</v>
       </c>
       <c r="J36" s="6" t="s">
@@ -5088,7 +5092,7 @@
         <v>269</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>82</v>
@@ -5096,10 +5100,10 @@
       <c r="G37" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="H37" s="6">
+      <c r="H37" s="9">
         <v>2433.62</v>
       </c>
-      <c r="I37" s="6">
+      <c r="I37" s="9">
         <v>2433.62</v>
       </c>
       <c r="J37" s="6" t="s">
@@ -5126,7 +5130,7 @@
         <v>206</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>158</v>
@@ -5134,10 +5138,10 @@
       <c r="G38" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="H38" s="6">
+      <c r="H38" s="9">
         <v>624.12</v>
       </c>
-      <c r="I38" s="6">
+      <c r="I38" s="9">
         <v>624.12</v>
       </c>
       <c r="J38" s="6" t="s">
@@ -5164,18 +5168,18 @@
         <v>43</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>275</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>1038</v>
-      </c>
-      <c r="H39" s="6">
+        <v>1037</v>
+      </c>
+      <c r="H39" s="9">
         <v>31.86</v>
       </c>
-      <c r="I39" s="6">
+      <c r="I39" s="9">
         <v>31.86</v>
       </c>
       <c r="J39" s="6" t="s">
@@ -5202,18 +5206,18 @@
         <v>12</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>257</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>1039</v>
-      </c>
-      <c r="H40" s="6">
+        <v>1038</v>
+      </c>
+      <c r="H40" s="9">
         <v>5712.18</v>
       </c>
-      <c r="I40" s="6">
+      <c r="I40" s="9">
         <v>5712.18</v>
       </c>
       <c r="J40" s="6" t="s">
@@ -5240,7 +5244,7 @@
         <v>147</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F41" s="6" t="s">
         <v>40</v>
@@ -5248,10 +5252,10 @@
       <c r="G41" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="H41" s="6">
+      <c r="H41" s="9">
         <v>28038.11</v>
       </c>
-      <c r="I41" s="6">
+      <c r="I41" s="9">
         <v>28038.11</v>
       </c>
       <c r="J41" s="6" t="s">
@@ -5278,7 +5282,7 @@
         <v>133</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F42" s="6" t="s">
         <v>275</v>
@@ -5286,10 +5290,10 @@
       <c r="G42" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="H42" s="6">
+      <c r="H42" s="9">
         <v>143.35</v>
       </c>
-      <c r="I42" s="6">
+      <c r="I42" s="9">
         <v>143.35</v>
       </c>
       <c r="J42" s="6" t="s">
@@ -5316,18 +5320,18 @@
         <v>284</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F43" s="6" t="s">
         <v>168</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>1040</v>
-      </c>
-      <c r="H43" s="6">
+        <v>1039</v>
+      </c>
+      <c r="H43" s="9">
         <v>260.66000000000003</v>
       </c>
-      <c r="I43" s="6">
+      <c r="I43" s="9">
         <v>260.66000000000003</v>
       </c>
       <c r="J43" s="6" t="s">
@@ -5354,7 +5358,7 @@
         <v>286</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F44" s="6" t="s">
         <v>287</v>
@@ -5362,10 +5366,10 @@
       <c r="G44" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="H44" s="6">
+      <c r="H44" s="9">
         <v>10126.32</v>
       </c>
-      <c r="I44" s="6">
+      <c r="I44" s="9">
         <v>10126.32</v>
       </c>
       <c r="J44" s="6" t="s">
@@ -5392,7 +5396,7 @@
         <v>123</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F45" s="6" t="s">
         <v>13</v>
@@ -5400,17 +5404,17 @@
       <c r="G45" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="H45" s="6">
+      <c r="H45" s="9">
         <v>2873.6</v>
       </c>
-      <c r="I45" s="6">
+      <c r="I45" s="9">
         <v>2873.6</v>
       </c>
       <c r="J45" s="6" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="K45" s="6" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="L45" s="6" t="s">
         <v>45</v>
@@ -5439,12 +5443,12 @@
         <v>174</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>1042</v>
-      </c>
-      <c r="H46" s="6">
+        <v>1041</v>
+      </c>
+      <c r="H46" s="9">
         <v>3912.77</v>
       </c>
-      <c r="I46" s="6">
+      <c r="I46" s="9">
         <v>3912.77</v>
       </c>
       <c r="J46" s="6" t="s">
@@ -5471,7 +5475,7 @@
         <v>123</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F47" s="6" t="s">
         <v>13</v>
@@ -5479,17 +5483,17 @@
       <c r="G47" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="H47" s="6">
+      <c r="H47" s="9">
         <v>911.15</v>
       </c>
-      <c r="I47" s="6">
+      <c r="I47" s="9">
         <v>911.15</v>
       </c>
       <c r="J47" s="6" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="L47" s="6" t="s">
         <v>45</v>
@@ -5509,7 +5513,7 @@
         <v>154</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F48" s="6" t="s">
         <v>40</v>
@@ -5517,17 +5521,17 @@
       <c r="G48" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="H48" s="6">
+      <c r="H48" s="9">
         <v>960</v>
       </c>
-      <c r="I48" s="6">
+      <c r="I48" s="9">
         <v>960</v>
       </c>
       <c r="J48" s="6" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="K48" s="6" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="L48" s="6" t="s">
         <v>15</v>
@@ -5547,18 +5551,18 @@
         <v>196</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F49" s="6" t="s">
         <v>299</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>1045</v>
-      </c>
-      <c r="H49" s="6">
+        <v>1044</v>
+      </c>
+      <c r="H49" s="9">
         <v>4906.4399999999996</v>
       </c>
-      <c r="I49" s="6">
+      <c r="I49" s="9">
         <v>9812.8799999999992</v>
       </c>
       <c r="J49" s="6" t="s">
@@ -5585,7 +5589,7 @@
         <v>304</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F50" s="6" t="s">
         <v>305</v>
@@ -5593,10 +5597,10 @@
       <c r="G50" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="H50" s="6">
+      <c r="H50" s="9">
         <v>8679.91</v>
       </c>
-      <c r="I50" s="6">
+      <c r="I50" s="9">
         <v>8679.91</v>
       </c>
       <c r="J50" s="6" t="s">
@@ -5623,15 +5627,15 @@
         <v>147</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="G51" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="H51" s="6">
+      <c r="H51" s="9">
         <v>854.38</v>
       </c>
-      <c r="I51" s="6">
+      <c r="I51" s="9">
         <v>854.38</v>
       </c>
       <c r="J51" s="6" t="s">
@@ -5658,7 +5662,7 @@
         <v>206</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F52" s="6" t="s">
         <v>314</v>
@@ -5666,10 +5670,10 @@
       <c r="G52" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="H52" s="6">
+      <c r="H52" s="9">
         <v>560.70000000000005</v>
       </c>
-      <c r="I52" s="6">
+      <c r="I52" s="9">
         <v>560.70000000000005</v>
       </c>
       <c r="J52" s="6" t="s">
@@ -5696,15 +5700,15 @@
         <v>219</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="H53" s="6">
+      <c r="H53" s="9">
         <v>266.16000000000003</v>
       </c>
-      <c r="I53" s="6">
+      <c r="I53" s="9">
         <v>289.62</v>
       </c>
       <c r="J53" s="6" t="s">
@@ -5731,15 +5735,15 @@
         <v>206</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="G54" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="H54" s="6">
+      <c r="H54" s="9">
         <v>86.6</v>
       </c>
-      <c r="I54" s="6">
+      <c r="I54" s="9">
         <v>86.89</v>
       </c>
       <c r="J54" s="6" t="s">
@@ -5766,7 +5770,7 @@
         <v>329</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F55" s="6" t="s">
         <v>263</v>
@@ -5774,10 +5778,10 @@
       <c r="G55" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="H55" s="6">
+      <c r="H55" s="9">
         <v>5788.06</v>
       </c>
-      <c r="I55" s="6">
+      <c r="I55" s="9">
         <v>5788.06</v>
       </c>
       <c r="J55" s="6" t="s">
@@ -5804,18 +5808,18 @@
         <v>247</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F56" s="6" t="s">
         <v>333</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>1046</v>
-      </c>
-      <c r="H56" s="6">
+        <v>1045</v>
+      </c>
+      <c r="H56" s="9">
         <v>12780.76</v>
       </c>
-      <c r="I56" s="6">
+      <c r="I56" s="9">
         <v>12780.76</v>
       </c>
       <c r="J56" s="6" t="s">
@@ -5853,10 +5857,10 @@
       <c r="G57" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="H57" s="6">
+      <c r="H57" s="9">
         <v>4456.63</v>
       </c>
-      <c r="I57" s="6">
+      <c r="I57" s="9">
         <v>4456.63</v>
       </c>
       <c r="J57" s="6" t="s">
@@ -5883,7 +5887,7 @@
         <v>154</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F58" s="6" t="s">
         <v>341</v>
@@ -5891,10 +5895,10 @@
       <c r="G58" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="H58" s="6">
+      <c r="H58" s="9">
         <v>525.66</v>
       </c>
-      <c r="I58" s="6">
+      <c r="I58" s="9">
         <v>525.66</v>
       </c>
       <c r="J58" s="6" t="s">
@@ -5921,15 +5925,15 @@
         <v>269</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="G59" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="H59" s="6">
+      <c r="H59" s="9">
         <v>2517.64</v>
       </c>
-      <c r="I59" s="6">
+      <c r="I59" s="9">
         <v>2517.64</v>
       </c>
       <c r="J59" s="6" t="s">
@@ -5956,7 +5960,7 @@
         <v>344</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F60" s="6" t="s">
         <v>158</v>
@@ -5964,10 +5968,10 @@
       <c r="G60" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="H60" s="6">
+      <c r="H60" s="9">
         <v>434.43</v>
       </c>
-      <c r="I60" s="6">
+      <c r="I60" s="9">
         <v>434.43</v>
       </c>
       <c r="J60" s="6" t="s">
@@ -5994,7 +5998,7 @@
         <v>232</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F61" s="6" t="s">
         <v>81</v>
@@ -6002,10 +6006,10 @@
       <c r="G61" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="H61" s="6">
+      <c r="H61" s="9">
         <v>86.89</v>
       </c>
-      <c r="I61" s="6">
+      <c r="I61" s="9">
         <v>86.89</v>
       </c>
       <c r="J61" s="6" t="s">
@@ -6032,7 +6036,7 @@
         <v>232</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F62" s="6" t="s">
         <v>81</v>
@@ -6040,10 +6044,10 @@
       <c r="G62" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="H62" s="6">
+      <c r="H62" s="9">
         <v>158.41999999999999</v>
       </c>
-      <c r="I62" s="6">
+      <c r="I62" s="9">
         <v>158.41999999999999</v>
       </c>
       <c r="J62" s="6" t="s">
@@ -6070,7 +6074,7 @@
         <v>344</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F63" s="6" t="s">
         <v>14</v>
@@ -6078,10 +6082,10 @@
       <c r="G63" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="H63" s="6">
+      <c r="H63" s="9">
         <v>144.80000000000001</v>
       </c>
-      <c r="I63" s="6">
+      <c r="I63" s="9">
         <v>144.81</v>
       </c>
       <c r="J63" s="6" t="s">
@@ -6108,18 +6112,18 @@
         <v>32</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F64" s="6" t="s">
         <v>187</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>1047</v>
-      </c>
-      <c r="H64" s="6">
+        <v>1046</v>
+      </c>
+      <c r="H64" s="9">
         <v>247.8</v>
       </c>
-      <c r="I64" s="6">
+      <c r="I64" s="9">
         <v>289.62</v>
       </c>
       <c r="J64" s="6" t="s">
@@ -6146,15 +6150,15 @@
         <v>94</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="G65" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="H65" s="6">
+      <c r="H65" s="9">
         <v>952.85</v>
       </c>
-      <c r="I65" s="6">
+      <c r="I65" s="9">
         <v>952.85</v>
       </c>
       <c r="J65" s="6" t="s">
@@ -6192,10 +6196,10 @@
       <c r="G66" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="H66" s="6">
+      <c r="H66" s="9">
         <v>8072.73</v>
       </c>
-      <c r="I66" s="6">
+      <c r="I66" s="9">
         <v>8072.73</v>
       </c>
       <c r="J66" s="6" t="s">
@@ -6222,7 +6226,7 @@
         <v>118</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F67" s="6" t="s">
         <v>257</v>
@@ -6230,10 +6234,10 @@
       <c r="G67" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="H67" s="6">
+      <c r="H67" s="9">
         <v>1140.52</v>
       </c>
-      <c r="I67" s="6">
+      <c r="I67" s="9">
         <v>1140.52</v>
       </c>
       <c r="J67" s="6" t="s">
@@ -6260,7 +6264,7 @@
         <v>376</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F68" s="6" t="s">
         <v>368</v>
@@ -6268,10 +6272,10 @@
       <c r="G68" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="H68" s="6">
+      <c r="H68" s="9">
         <v>1398.86</v>
       </c>
-      <c r="I68" s="6">
+      <c r="I68" s="9">
         <v>1398.86</v>
       </c>
       <c r="J68" s="6" t="s">
@@ -6298,7 +6302,7 @@
         <v>380</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F69" s="6" t="s">
         <v>158</v>
@@ -6306,10 +6310,10 @@
       <c r="G69" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="H69" s="6">
+      <c r="H69" s="9">
         <v>405.47</v>
       </c>
-      <c r="I69" s="6">
+      <c r="I69" s="9">
         <v>405.47</v>
       </c>
       <c r="J69" s="6" t="s">
@@ -6347,10 +6351,10 @@
       <c r="G70" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="H70" s="6">
+      <c r="H70" s="9">
         <v>2803.52</v>
       </c>
-      <c r="I70" s="6">
+      <c r="I70" s="9">
         <v>2803.52</v>
       </c>
       <c r="J70" s="6" t="s">
@@ -6377,7 +6381,7 @@
         <v>127</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F71" s="6" t="s">
         <v>110</v>
@@ -6385,10 +6389,10 @@
       <c r="G71" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="H71" s="6">
+      <c r="H71" s="9">
         <v>2250.35</v>
       </c>
-      <c r="I71" s="6">
+      <c r="I71" s="9">
         <v>2250.35</v>
       </c>
       <c r="J71" s="6" t="s">
@@ -6415,7 +6419,7 @@
         <v>32</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F72" s="6" t="s">
         <v>404</v>
@@ -6423,10 +6427,10 @@
       <c r="G72" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="H72" s="6">
+      <c r="H72" s="9">
         <v>463.39</v>
       </c>
-      <c r="I72" s="6">
+      <c r="I72" s="9">
         <v>463.39</v>
       </c>
       <c r="J72" s="6" t="s">
@@ -6453,18 +6457,18 @@
         <v>304</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F73" s="6" t="s">
         <v>305</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>1048</v>
-      </c>
-      <c r="H73" s="6">
+        <v>1047</v>
+      </c>
+      <c r="H73" s="9">
         <v>429.29</v>
       </c>
-      <c r="I73" s="6">
+      <c r="I73" s="9">
         <v>429.29</v>
       </c>
       <c r="J73" s="6" t="s">
@@ -6491,18 +6495,18 @@
         <v>219</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F74" s="6" t="s">
         <v>234</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>1049</v>
-      </c>
-      <c r="H74" s="6">
+        <v>1048</v>
+      </c>
+      <c r="H74" s="9">
         <v>272.24</v>
       </c>
-      <c r="I74" s="6">
+      <c r="I74" s="9">
         <v>272.24</v>
       </c>
       <c r="J74" s="6" t="s">
@@ -6529,7 +6533,7 @@
         <v>43</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F75" s="6" t="s">
         <v>412</v>
@@ -6537,10 +6541,10 @@
       <c r="G75" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="H75" s="6" t="s">
+      <c r="H75" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I75" s="6">
+      <c r="I75" s="9">
         <v>83.12</v>
       </c>
       <c r="J75" s="6" t="s">
@@ -6578,10 +6582,10 @@
       <c r="G76" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="H76" s="6">
+      <c r="H76" s="9">
         <v>8622.49</v>
       </c>
-      <c r="I76" s="6">
+      <c r="I76" s="9">
         <v>8622.49</v>
       </c>
       <c r="J76" s="6" t="s">
@@ -6619,10 +6623,10 @@
       <c r="G77" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="H77" s="6">
+      <c r="H77" s="9">
         <v>8550.7000000000007</v>
       </c>
-      <c r="I77" s="6">
+      <c r="I77" s="9">
         <v>8550.7000000000007</v>
       </c>
       <c r="J77" s="6" t="s">
@@ -6649,7 +6653,7 @@
         <v>94</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F78" s="6" t="s">
         <v>165</v>
@@ -6657,10 +6661,10 @@
       <c r="G78" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="H78" s="6">
+      <c r="H78" s="9">
         <v>2242.8200000000002</v>
       </c>
-      <c r="I78" s="6">
+      <c r="I78" s="9">
         <v>2242.8200000000002</v>
       </c>
       <c r="J78" s="6" t="s">
@@ -6687,7 +6691,7 @@
         <v>420</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F79" s="6" t="s">
         <v>421</v>
@@ -6695,10 +6699,10 @@
       <c r="G79" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="H79" s="6">
+      <c r="H79" s="9">
         <v>7472.2</v>
       </c>
-      <c r="I79" s="6">
+      <c r="I79" s="9">
         <v>7472.2</v>
       </c>
       <c r="J79" s="6" t="s">
@@ -6725,7 +6729,7 @@
         <v>123</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F80" s="6" t="s">
         <v>368</v>
@@ -6733,17 +6737,17 @@
       <c r="G80" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="H80" s="6">
+      <c r="H80" s="9">
         <v>1033.6500000000001</v>
       </c>
-      <c r="I80" s="6">
+      <c r="I80" s="9">
         <v>1033.5999999999999</v>
       </c>
       <c r="J80" s="6" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="K80" s="6" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="L80" s="6" t="s">
         <v>45</v>
@@ -6763,18 +6767,18 @@
         <v>94</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F81" s="6" t="s">
         <v>427</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>1051</v>
-      </c>
-      <c r="H81" s="6">
+        <v>1050</v>
+      </c>
+      <c r="H81" s="9">
         <v>75.17</v>
       </c>
-      <c r="I81" s="6">
+      <c r="I81" s="9">
         <v>75.17</v>
       </c>
       <c r="J81" s="6" t="s">
@@ -6801,7 +6805,7 @@
         <v>32</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F82" s="6" t="s">
         <v>430</v>
@@ -6809,10 +6813,10 @@
       <c r="G82" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="H82" s="6">
+      <c r="H82" s="9">
         <v>231.2</v>
       </c>
-      <c r="I82" s="6">
+      <c r="I82" s="9">
         <v>231.2</v>
       </c>
       <c r="J82" s="6" t="s">
@@ -6839,15 +6843,15 @@
         <v>203</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="G83" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="H83" s="6">
+      <c r="H83" s="9">
         <v>141.22999999999999</v>
       </c>
-      <c r="I83" s="6">
+      <c r="I83" s="9">
         <v>141.22999999999999</v>
       </c>
       <c r="J83" s="6" t="s">
@@ -6874,15 +6878,15 @@
         <v>436</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="G84" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="H84" s="6">
+      <c r="H84" s="9">
         <v>427.94</v>
       </c>
-      <c r="I84" s="6">
+      <c r="I84" s="9">
         <v>427.94</v>
       </c>
       <c r="J84" s="6" t="s">
@@ -6909,15 +6913,15 @@
         <v>22</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="G85" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H85" s="6">
+      <c r="H85" s="9">
         <v>4954.95</v>
       </c>
-      <c r="I85" s="6">
+      <c r="I85" s="9">
         <v>4954.95</v>
       </c>
       <c r="J85" s="6" t="s">
@@ -6944,15 +6948,15 @@
         <v>440</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="G86" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="H86" s="6">
+      <c r="H86" s="9">
         <v>2970</v>
       </c>
-      <c r="I86" s="6">
+      <c r="I86" s="9">
         <v>2970</v>
       </c>
       <c r="J86" s="6" t="s">
@@ -6979,7 +6983,7 @@
         <v>12</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F87" s="6" t="s">
         <v>155</v>
@@ -6987,10 +6991,10 @@
       <c r="G87" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="H87" s="6">
+      <c r="H87" s="9">
         <v>1992.6</v>
       </c>
-      <c r="I87" s="6">
+      <c r="I87" s="9">
         <v>1992.6</v>
       </c>
       <c r="J87" s="6" t="s">
@@ -7017,7 +7021,7 @@
         <v>284</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F88" s="6" t="s">
         <v>287</v>
@@ -7025,10 +7029,10 @@
       <c r="G88" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="H88" s="6">
+      <c r="H88" s="9">
         <v>432.44</v>
       </c>
-      <c r="I88" s="6">
+      <c r="I88" s="9">
         <v>432.44</v>
       </c>
       <c r="J88" s="6" t="s">
@@ -7044,7 +7048,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="89" spans="1:13" s="6" customFormat="1" ht="38.25">
+    <row r="89" spans="1:13" s="6" customFormat="1" ht="25.5">
       <c r="A89" s="6">
         <v>8995</v>
       </c>
@@ -7055,7 +7059,7 @@
         <v>266</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F89" s="6" t="s">
         <v>303</v>
@@ -7063,17 +7067,17 @@
       <c r="G89" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="H89" s="6">
+      <c r="H89" s="9">
         <v>2838.57</v>
       </c>
-      <c r="I89" s="6">
+      <c r="I89" s="9">
         <v>2838.57</v>
       </c>
       <c r="J89" s="6" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="K89" s="6" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="L89" s="6" t="s">
         <v>45</v>
@@ -7102,12 +7106,12 @@
         <v>449</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>1034</v>
-      </c>
-      <c r="H90" s="6">
+        <v>1033</v>
+      </c>
+      <c r="H90" s="9">
         <v>89999.56</v>
       </c>
-      <c r="I90" s="6">
+      <c r="I90" s="9">
         <v>89999.56</v>
       </c>
       <c r="J90" s="6" t="s">
@@ -7134,7 +7138,7 @@
         <v>94</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F91" s="6" t="s">
         <v>155</v>
@@ -7142,10 +7146,10 @@
       <c r="G91" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="H91" s="6">
+      <c r="H91" s="9">
         <v>1200</v>
       </c>
-      <c r="I91" s="6">
+      <c r="I91" s="9">
         <v>1200</v>
       </c>
       <c r="J91" s="6" t="s">
@@ -7172,15 +7176,15 @@
         <v>247</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="G92" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="H92" s="6">
+      <c r="H92" s="9">
         <v>1389.02</v>
       </c>
-      <c r="I92" s="6">
+      <c r="I92" s="9">
         <v>1389.02</v>
       </c>
       <c r="J92" s="6" t="s">
@@ -7207,18 +7211,18 @@
         <v>219</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F93" s="6" t="s">
         <v>421</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>1049</v>
-      </c>
-      <c r="H93" s="6">
+        <v>1048</v>
+      </c>
+      <c r="H93" s="9">
         <v>109.77</v>
       </c>
-      <c r="I93" s="6">
+      <c r="I93" s="9">
         <v>115.85</v>
       </c>
       <c r="J93" s="6" t="s">
@@ -7245,18 +7249,18 @@
         <v>32</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F94" s="6" t="s">
         <v>264</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>1047</v>
-      </c>
-      <c r="H94" s="6">
+        <v>1046</v>
+      </c>
+      <c r="H94" s="9">
         <v>133.38</v>
       </c>
-      <c r="I94" s="6">
+      <c r="I94" s="9">
         <v>144.81</v>
       </c>
       <c r="J94" s="6" t="s">
@@ -7283,7 +7287,7 @@
         <v>224</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F95" s="6" t="s">
         <v>236</v>
@@ -7291,10 +7295,10 @@
       <c r="G95" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="H95" s="6">
+      <c r="H95" s="9">
         <v>14181.97</v>
       </c>
-      <c r="I95" s="6">
+      <c r="I95" s="9">
         <v>14181.97</v>
       </c>
       <c r="J95" s="6" t="s">
@@ -7321,15 +7325,15 @@
         <v>286</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="G96" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="H96" s="6">
+      <c r="H96" s="9">
         <v>230.04</v>
       </c>
-      <c r="I96" s="6">
+      <c r="I96" s="9">
         <v>231.7</v>
       </c>
       <c r="J96" s="6" t="s">
@@ -7356,7 +7360,7 @@
         <v>468</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F97" s="6" t="s">
         <v>469</v>
@@ -7364,10 +7368,10 @@
       <c r="G97" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="H97" s="6">
+      <c r="H97" s="9">
         <v>7.01</v>
       </c>
-      <c r="I97" s="6">
+      <c r="I97" s="9">
         <v>7.01</v>
       </c>
       <c r="J97" s="6" t="s">
@@ -7391,7 +7395,7 @@
         <v>47</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F98" s="6" t="s">
         <v>472</v>
@@ -7399,10 +7403,10 @@
       <c r="G98" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="H98" s="6">
+      <c r="H98" s="9">
         <v>2647.59</v>
       </c>
-      <c r="I98" s="6">
+      <c r="I98" s="9">
         <v>2647.59</v>
       </c>
       <c r="J98" s="6" t="s">
@@ -7429,7 +7433,7 @@
         <v>32</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F99" s="6" t="s">
         <v>474</v>
@@ -7437,10 +7441,10 @@
       <c r="G99" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="H99" s="6">
+      <c r="H99" s="9">
         <v>162.54</v>
       </c>
-      <c r="I99" s="6">
+      <c r="I99" s="9">
         <v>162.54</v>
       </c>
       <c r="J99" s="6" t="s">
@@ -7467,7 +7471,7 @@
         <v>12</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F100" s="6" t="s">
         <v>479</v>
@@ -7475,10 +7479,10 @@
       <c r="G100" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="H100" s="6">
+      <c r="H100" s="9">
         <v>4257.8500000000004</v>
       </c>
-      <c r="I100" s="6">
+      <c r="I100" s="9">
         <v>4257.8500000000004</v>
       </c>
       <c r="J100" s="6" t="s">
@@ -7516,10 +7520,10 @@
       <c r="G101" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="H101" s="6">
+      <c r="H101" s="9">
         <v>18709.48</v>
       </c>
-      <c r="I101" s="6">
+      <c r="I101" s="9">
         <v>18709.48</v>
       </c>
       <c r="J101" s="6" t="s">
@@ -7557,10 +7561,10 @@
       <c r="G102" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="H102" s="6">
+      <c r="H102" s="9">
         <v>6736.06</v>
       </c>
-      <c r="I102" s="6">
+      <c r="I102" s="9">
         <v>6736.06</v>
       </c>
       <c r="J102" s="6" t="s">
@@ -7587,7 +7591,7 @@
         <v>32</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F103" s="6" t="s">
         <v>189</v>
@@ -7595,10 +7599,10 @@
       <c r="G103" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="H103" s="6" t="s">
+      <c r="H103" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I103" s="6">
+      <c r="I103" s="9">
         <v>434.08</v>
       </c>
       <c r="J103" s="6" t="s">
@@ -7625,7 +7629,7 @@
         <v>235</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F104" s="6" t="s">
         <v>108</v>
@@ -7633,10 +7637,10 @@
       <c r="G104" s="6" t="s">
         <v>488</v>
       </c>
-      <c r="H104" s="6">
+      <c r="H104" s="9">
         <v>509.15</v>
       </c>
-      <c r="I104" s="6">
+      <c r="I104" s="9">
         <v>509.15</v>
       </c>
       <c r="J104" s="6" t="s">
@@ -7663,7 +7667,7 @@
         <v>137</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F105" s="6" t="s">
         <v>491</v>
@@ -7671,10 +7675,10 @@
       <c r="G105" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="H105" s="6">
+      <c r="H105" s="9">
         <v>2733.43</v>
       </c>
-      <c r="I105" s="6">
+      <c r="I105" s="9">
         <v>2733.43</v>
       </c>
       <c r="J105" s="6" t="s">
@@ -7701,7 +7705,7 @@
         <v>157</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F106" s="6" t="s">
         <v>167</v>
@@ -7709,10 +7713,10 @@
       <c r="G106" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="H106" s="6">
+      <c r="H106" s="9">
         <v>1178.75</v>
       </c>
-      <c r="I106" s="6">
+      <c r="I106" s="9">
         <v>1178.75</v>
       </c>
       <c r="J106" s="6" t="s">
@@ -7750,10 +7754,10 @@
       <c r="G107" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="H107" s="6">
+      <c r="H107" s="9">
         <v>7240.45</v>
       </c>
-      <c r="I107" s="6">
+      <c r="I107" s="9">
         <v>7240.45</v>
       </c>
       <c r="J107" s="6" t="s">
@@ -7780,7 +7784,7 @@
         <v>94</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F108" s="6" t="s">
         <v>476</v>
@@ -7788,10 +7792,10 @@
       <c r="G108" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="H108" s="6">
+      <c r="H108" s="9">
         <v>59.14</v>
       </c>
-      <c r="I108" s="6">
+      <c r="I108" s="9">
         <v>59.14</v>
       </c>
       <c r="J108" s="6" t="s">
@@ -7818,18 +7822,18 @@
         <v>208</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F109" s="6" t="s">
         <v>476</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>1049</v>
-      </c>
-      <c r="H109" s="6">
+        <v>1048</v>
+      </c>
+      <c r="H109" s="9">
         <v>43.44</v>
       </c>
-      <c r="I109" s="6">
+      <c r="I109" s="9">
         <v>43.44</v>
       </c>
       <c r="J109" s="6" t="s">
@@ -7856,18 +7860,18 @@
         <v>501</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F110" s="6" t="s">
         <v>502</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>1053</v>
-      </c>
-      <c r="H110" s="6">
+        <v>1052</v>
+      </c>
+      <c r="H110" s="9">
         <v>446.53</v>
       </c>
-      <c r="I110" s="6">
+      <c r="I110" s="9">
         <v>446.53</v>
       </c>
       <c r="J110" s="6" t="s">
@@ -7894,7 +7898,7 @@
         <v>232</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F111" s="6" t="s">
         <v>477</v>
@@ -7902,10 +7906,10 @@
       <c r="G111" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="H111" s="6">
+      <c r="H111" s="9">
         <v>625.58000000000004</v>
       </c>
-      <c r="I111" s="6">
+      <c r="I111" s="9">
         <v>625.58000000000004</v>
       </c>
       <c r="J111" s="6" t="s">
@@ -7932,7 +7936,7 @@
         <v>94</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F112" s="6" t="s">
         <v>476</v>
@@ -7940,10 +7944,10 @@
       <c r="G112" s="6" t="s">
         <v>509</v>
       </c>
-      <c r="H112" s="6">
+      <c r="H112" s="9">
         <v>40.049999999999997</v>
       </c>
-      <c r="I112" s="6">
+      <c r="I112" s="9">
         <v>40.049999999999997</v>
       </c>
       <c r="J112" s="6" t="s">
@@ -7970,15 +7974,15 @@
         <v>32</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="G113" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="H113" s="6">
+      <c r="H113" s="9">
         <v>141.59</v>
       </c>
-      <c r="I113" s="6">
+      <c r="I113" s="9">
         <v>231.7</v>
       </c>
       <c r="J113" s="6" t="s">
@@ -8005,15 +8009,15 @@
         <v>514</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="G114" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="H114" s="6">
+      <c r="H114" s="9">
         <v>723.09</v>
       </c>
-      <c r="I114" s="6">
+      <c r="I114" s="9">
         <v>724.05</v>
       </c>
       <c r="J114" s="6" t="s">
@@ -8040,7 +8044,7 @@
         <v>517</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F115" s="6" t="s">
         <v>479</v>
@@ -8048,10 +8052,10 @@
       <c r="G115" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="H115" s="6">
+      <c r="H115" s="9">
         <v>432.46</v>
       </c>
-      <c r="I115" s="6">
+      <c r="I115" s="9">
         <v>434.43</v>
       </c>
       <c r="J115" s="6" t="s">
@@ -8078,15 +8082,15 @@
         <v>520</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="G116" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="H116" s="6">
+      <c r="H116" s="9">
         <v>578.17999999999995</v>
       </c>
-      <c r="I116" s="6">
+      <c r="I116" s="9">
         <v>579.24</v>
       </c>
       <c r="J116" s="6" t="s">
@@ -8113,15 +8117,15 @@
         <v>28</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="G117" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="H117" s="6">
+      <c r="H117" s="9">
         <v>280.35000000000002</v>
       </c>
-      <c r="I117" s="6">
+      <c r="I117" s="9">
         <v>280.35000000000002</v>
       </c>
       <c r="J117" s="6" t="s">
@@ -8148,18 +8152,18 @@
         <v>247</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F118" s="6" t="s">
         <v>527</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>1054</v>
-      </c>
-      <c r="H118" s="6">
+        <v>1053</v>
+      </c>
+      <c r="H118" s="9">
         <v>2780.35</v>
       </c>
-      <c r="I118" s="6">
+      <c r="I118" s="9">
         <v>2780.35</v>
       </c>
       <c r="J118" s="6" t="s">
@@ -8186,15 +8190,15 @@
         <v>39</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="G119" s="6" t="s">
         <v>530</v>
       </c>
-      <c r="H119" s="6">
+      <c r="H119" s="9">
         <v>578.23</v>
       </c>
-      <c r="I119" s="6">
+      <c r="I119" s="9">
         <v>578.23</v>
       </c>
       <c r="J119" s="6" t="s">
@@ -8221,15 +8225,15 @@
         <v>532</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="G120" s="6" t="s">
         <v>533</v>
       </c>
-      <c r="H120" s="6">
+      <c r="H120" s="9">
         <v>433.39</v>
       </c>
-      <c r="I120" s="6">
+      <c r="I120" s="9">
         <v>433.39</v>
       </c>
       <c r="J120" s="6" t="s">
@@ -8264,10 +8268,10 @@
       <c r="G121" s="6" t="s">
         <v>537</v>
       </c>
-      <c r="H121" s="6">
+      <c r="H121" s="9">
         <v>3647.38</v>
       </c>
-      <c r="I121" s="6">
+      <c r="I121" s="9">
         <v>3647.38</v>
       </c>
       <c r="J121" s="6" t="s">
@@ -8294,7 +8298,7 @@
         <v>284</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F122" s="6" t="s">
         <v>317</v>
@@ -8302,10 +8306,10 @@
       <c r="G122" s="6" t="s">
         <v>539</v>
       </c>
-      <c r="H122" s="6">
+      <c r="H122" s="9">
         <v>3241.57</v>
       </c>
-      <c r="I122" s="6">
+      <c r="I122" s="9">
         <v>3241.57</v>
       </c>
       <c r="J122" s="6" t="s">
@@ -8332,7 +8336,7 @@
         <v>219</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F123" s="6" t="s">
         <v>479</v>
@@ -8340,10 +8344,10 @@
       <c r="G123" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="H123" s="6">
+      <c r="H123" s="9">
         <v>419.95</v>
       </c>
-      <c r="I123" s="6">
+      <c r="I123" s="9">
         <v>419.95</v>
       </c>
       <c r="J123" s="6" t="s">
@@ -8370,7 +8374,7 @@
         <v>242</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F124" s="6" t="s">
         <v>479</v>
@@ -8378,10 +8382,10 @@
       <c r="G124" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="H124" s="6">
+      <c r="H124" s="9">
         <v>2816.55</v>
       </c>
-      <c r="I124" s="6">
+      <c r="I124" s="9">
         <v>2816.55</v>
       </c>
       <c r="J124" s="6" t="s">
@@ -8408,7 +8412,7 @@
         <v>232</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F125" s="6" t="s">
         <v>549</v>
@@ -8416,14 +8420,14 @@
       <c r="G125" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="H125" s="6">
+      <c r="H125" s="9">
         <v>508.57</v>
       </c>
-      <c r="I125" s="6">
+      <c r="I125" s="9">
         <v>508.57</v>
       </c>
       <c r="J125" s="6" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="K125" s="6" t="s">
         <v>233</v>
@@ -8446,7 +8450,7 @@
         <v>1</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F126" s="6" t="s">
         <v>333</v>
@@ -8454,10 +8458,10 @@
       <c r="G126" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="H126" s="6">
+      <c r="H126" s="9">
         <v>31378.01</v>
       </c>
-      <c r="I126" s="6">
+      <c r="I126" s="9">
         <v>31378.01</v>
       </c>
       <c r="J126" s="6" t="s">
@@ -8484,7 +8488,7 @@
         <v>247</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F127" s="6" t="s">
         <v>552</v>
@@ -8492,10 +8496,10 @@
       <c r="G127" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="H127" s="6">
+      <c r="H127" s="9">
         <v>7228.05</v>
       </c>
-      <c r="I127" s="6">
+      <c r="I127" s="9">
         <v>7228.05</v>
       </c>
       <c r="J127" s="6" t="s">
@@ -8531,12 +8535,12 @@
         <v>556</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>1056</v>
-      </c>
-      <c r="H128" s="6">
+        <v>1055</v>
+      </c>
+      <c r="H128" s="9">
         <v>2316.96</v>
       </c>
-      <c r="I128" s="6">
+      <c r="I128" s="9">
         <v>2316.96</v>
       </c>
       <c r="J128" s="6" t="s">
@@ -8571,10 +8575,10 @@
       <c r="G129" s="6" t="s">
         <v>561</v>
       </c>
-      <c r="H129" s="6">
+      <c r="H129" s="9">
         <v>1737.63</v>
       </c>
-      <c r="I129" s="6">
+      <c r="I129" s="9">
         <v>1737.63</v>
       </c>
       <c r="J129" s="6" t="s">
@@ -8609,10 +8613,10 @@
       <c r="G130" s="6" t="s">
         <v>537</v>
       </c>
-      <c r="H130" s="6">
+      <c r="H130" s="9">
         <v>868.25</v>
       </c>
-      <c r="I130" s="6">
+      <c r="I130" s="9">
         <v>868.25</v>
       </c>
       <c r="J130" s="6" t="s">
@@ -8650,10 +8654,10 @@
       <c r="G131" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="H131" s="6" t="s">
+      <c r="H131" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I131" s="6">
+      <c r="I131" s="9">
         <v>7096.27</v>
       </c>
       <c r="J131" s="6" t="s">
@@ -8680,7 +8684,7 @@
         <v>219</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F132" s="6" t="s">
         <v>568</v>
@@ -8688,10 +8692,10 @@
       <c r="G132" s="6" t="s">
         <v>569</v>
       </c>
-      <c r="H132" s="6">
+      <c r="H132" s="9">
         <v>11382</v>
       </c>
-      <c r="I132" s="6">
+      <c r="I132" s="9">
         <v>11382</v>
       </c>
       <c r="J132" s="6" t="s">
@@ -8729,10 +8733,10 @@
       <c r="G133" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="H133" s="6">
+      <c r="H133" s="9">
         <v>8514.0300000000007</v>
       </c>
-      <c r="I133" s="6">
+      <c r="I133" s="9">
         <v>8514.0300000000007</v>
       </c>
       <c r="J133" s="6" t="s">
@@ -8759,7 +8763,7 @@
         <v>6</v>
       </c>
       <c r="E134" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F134" s="6" t="s">
         <v>575</v>
@@ -8767,10 +8771,10 @@
       <c r="G134" s="6" t="s">
         <v>576</v>
       </c>
-      <c r="H134" s="6">
+      <c r="H134" s="9">
         <v>579.24</v>
       </c>
-      <c r="I134" s="6">
+      <c r="I134" s="9">
         <v>579.24</v>
       </c>
       <c r="J134" s="6" t="s">
@@ -8797,7 +8801,7 @@
         <v>579</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F135" s="6" t="s">
         <v>580</v>
@@ -8805,10 +8809,10 @@
       <c r="G135" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="H135" s="6">
+      <c r="H135" s="9">
         <v>153.5</v>
       </c>
-      <c r="I135" s="6">
+      <c r="I135" s="9">
         <v>153.5</v>
       </c>
       <c r="J135" s="6" t="s">
@@ -8835,7 +8839,7 @@
         <v>6</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F136" s="6" t="s">
         <v>314</v>
@@ -8843,10 +8847,10 @@
       <c r="G136" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="H136" s="6">
+      <c r="H136" s="9">
         <v>868.86</v>
       </c>
-      <c r="I136" s="6">
+      <c r="I136" s="9">
         <v>868.86</v>
       </c>
       <c r="J136" s="6" t="s">
@@ -8873,15 +8877,15 @@
         <v>166</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="G137" s="6" t="s">
         <v>587</v>
       </c>
-      <c r="H137" s="6">
+      <c r="H137" s="9">
         <v>1445.22</v>
       </c>
-      <c r="I137" s="6">
+      <c r="I137" s="9">
         <v>1448.1</v>
       </c>
       <c r="J137" s="6" t="s">
@@ -8908,7 +8912,7 @@
         <v>284</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F138" s="6" t="s">
         <v>590</v>
@@ -8916,10 +8920,10 @@
       <c r="G138" s="6" t="s">
         <v>591</v>
       </c>
-      <c r="H138" s="6">
+      <c r="H138" s="9">
         <v>578.66</v>
       </c>
-      <c r="I138" s="6">
+      <c r="I138" s="9">
         <v>579.24</v>
       </c>
       <c r="J138" s="6" t="s">
@@ -8946,15 +8950,15 @@
         <v>261</v>
       </c>
       <c r="E139" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="G139" s="6" t="s">
         <v>593</v>
       </c>
-      <c r="H139" s="6">
+      <c r="H139" s="9">
         <v>2626.85</v>
       </c>
-      <c r="I139" s="6">
+      <c r="I139" s="9">
         <v>2635.54</v>
       </c>
       <c r="J139" s="6" t="s">
@@ -8981,7 +8985,7 @@
         <v>532</v>
       </c>
       <c r="E140" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F140" s="6" t="s">
         <v>445</v>
@@ -8989,10 +8993,10 @@
       <c r="G140" s="6" t="s">
         <v>597</v>
       </c>
-      <c r="H140" s="6">
+      <c r="H140" s="9">
         <v>1795.64</v>
       </c>
-      <c r="I140" s="6">
+      <c r="I140" s="9">
         <v>1795.64</v>
       </c>
       <c r="J140" s="6" t="s">
@@ -9019,7 +9023,7 @@
         <v>599</v>
       </c>
       <c r="E141" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F141" s="6" t="s">
         <v>445</v>
@@ -9027,10 +9031,10 @@
       <c r="G141" s="6" t="s">
         <v>600</v>
       </c>
-      <c r="H141" s="6">
+      <c r="H141" s="9">
         <v>1013.67</v>
       </c>
-      <c r="I141" s="6">
+      <c r="I141" s="9">
         <v>1013.67</v>
       </c>
       <c r="J141" s="6" t="s">
@@ -9057,15 +9061,15 @@
         <v>28</v>
       </c>
       <c r="E142" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F142" s="6" t="s">
         <v>606</v>
       </c>
-      <c r="H142" s="6">
+      <c r="H142" s="9">
         <v>1000</v>
       </c>
-      <c r="I142" s="6">
+      <c r="I142" s="9">
         <v>1000</v>
       </c>
       <c r="J142" s="6" t="s">
@@ -9092,7 +9096,7 @@
         <v>147</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F143" s="6" t="s">
         <v>575</v>
@@ -9100,10 +9104,10 @@
       <c r="G143" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="H143" s="6">
+      <c r="H143" s="9">
         <v>2316.7600000000002</v>
       </c>
-      <c r="I143" s="6">
+      <c r="I143" s="9">
         <v>2316.7600000000002</v>
       </c>
       <c r="J143" s="6" t="s">
@@ -9130,7 +9134,7 @@
         <v>235</v>
       </c>
       <c r="E144" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F144" s="6" t="s">
         <v>604</v>
@@ -9138,10 +9142,10 @@
       <c r="G144" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="H144" s="6">
+      <c r="H144" s="9">
         <v>3475.44</v>
       </c>
-      <c r="I144" s="6">
+      <c r="I144" s="9">
         <v>3475.44</v>
       </c>
       <c r="J144" s="6" t="s">
@@ -9179,10 +9183,10 @@
       <c r="G145" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="H145" s="6">
+      <c r="H145" s="9">
         <v>2896.2</v>
       </c>
-      <c r="I145" s="6">
+      <c r="I145" s="9">
         <v>2896.2</v>
       </c>
       <c r="J145" s="6" t="s">
@@ -9220,10 +9224,10 @@
       <c r="G146" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="H146" s="6">
+      <c r="H146" s="9">
         <v>2889.52</v>
       </c>
-      <c r="I146" s="6">
+      <c r="I146" s="9">
         <v>2889.52</v>
       </c>
       <c r="J146" s="6" t="s">
@@ -9261,10 +9265,10 @@
       <c r="G147" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="H147" s="6">
+      <c r="H147" s="9">
         <v>1448.02</v>
       </c>
-      <c r="I147" s="6">
+      <c r="I147" s="9">
         <v>1448.02</v>
       </c>
       <c r="J147" s="6" t="s">
@@ -9291,7 +9295,7 @@
         <v>166</v>
       </c>
       <c r="E148" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F148" s="6" t="s">
         <v>621</v>
@@ -9299,10 +9303,10 @@
       <c r="G148" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="H148" s="6">
+      <c r="H148" s="9">
         <v>1592.91</v>
       </c>
-      <c r="I148" s="6">
+      <c r="I148" s="9">
         <v>1592.91</v>
       </c>
       <c r="J148" s="6" t="s">
@@ -9329,7 +9333,7 @@
         <v>166</v>
       </c>
       <c r="E149" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F149" s="6" t="s">
         <v>623</v>
@@ -9337,10 +9341,10 @@
       <c r="G149" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="H149" s="6">
+      <c r="H149" s="9">
         <v>1157.8499999999999</v>
       </c>
-      <c r="I149" s="6">
+      <c r="I149" s="9">
         <v>1157.8499999999999</v>
       </c>
       <c r="J149" s="6" t="s">
@@ -9367,7 +9371,7 @@
         <v>624</v>
       </c>
       <c r="E150" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F150" s="6" t="s">
         <v>116</v>
@@ -9375,10 +9379,10 @@
       <c r="G150" s="6" t="s">
         <v>625</v>
       </c>
-      <c r="H150" s="6">
+      <c r="H150" s="9">
         <v>2719.53</v>
       </c>
-      <c r="I150" s="6">
+      <c r="I150" s="9">
         <v>2719.53</v>
       </c>
       <c r="J150" s="6" t="s">
@@ -9405,15 +9409,15 @@
         <v>628</v>
       </c>
       <c r="E151" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="G151" s="6" t="s">
         <v>629</v>
       </c>
-      <c r="H151" s="6">
+      <c r="H151" s="9">
         <v>1373.55</v>
       </c>
-      <c r="I151" s="6">
+      <c r="I151" s="9">
         <v>1373.55</v>
       </c>
       <c r="J151" s="6" t="s">
@@ -9440,7 +9444,7 @@
         <v>579</v>
       </c>
       <c r="E152" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F152" s="6" t="s">
         <v>313</v>
@@ -9448,10 +9452,10 @@
       <c r="G152" s="6" t="s">
         <v>593</v>
       </c>
-      <c r="H152" s="6">
+      <c r="H152" s="9">
         <v>2024.44</v>
       </c>
-      <c r="I152" s="6">
+      <c r="I152" s="9">
         <v>2027.34</v>
       </c>
       <c r="J152" s="6" t="s">
@@ -9478,7 +9482,7 @@
         <v>6</v>
       </c>
       <c r="E153" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F153" s="6" t="s">
         <v>388</v>
@@ -9486,17 +9490,17 @@
       <c r="G153" s="6" t="s">
         <v>634</v>
       </c>
-      <c r="H153" s="6">
+      <c r="H153" s="9">
         <v>431.53</v>
       </c>
-      <c r="I153" s="6">
+      <c r="I153" s="9">
         <v>431.53</v>
       </c>
       <c r="J153" s="6" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="K153" s="6" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="L153" s="6" t="s">
         <v>15</v>
@@ -9516,7 +9520,7 @@
         <v>269</v>
       </c>
       <c r="E154" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F154" s="6" t="s">
         <v>635</v>
@@ -9524,10 +9528,10 @@
       <c r="G154" s="6" t="s">
         <v>636</v>
       </c>
-      <c r="H154" s="6">
+      <c r="H154" s="9">
         <v>3468.69</v>
       </c>
-      <c r="I154" s="6">
+      <c r="I154" s="9">
         <v>3468.69</v>
       </c>
       <c r="J154" s="6" t="s">
@@ -9554,15 +9558,15 @@
         <v>603</v>
       </c>
       <c r="E155" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F155" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="H155" s="6">
+      <c r="H155" s="9">
         <v>4492.13</v>
       </c>
-      <c r="I155" s="6">
+      <c r="I155" s="9">
         <v>4492.13</v>
       </c>
       <c r="J155" s="6" t="s">
@@ -9589,7 +9593,7 @@
         <v>6</v>
       </c>
       <c r="E156" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F156" s="6" t="s">
         <v>209</v>
@@ -9597,10 +9601,10 @@
       <c r="G156" s="6" t="s">
         <v>640</v>
       </c>
-      <c r="H156" s="6">
+      <c r="H156" s="9">
         <v>723.76</v>
       </c>
-      <c r="I156" s="6">
+      <c r="I156" s="9">
         <v>723.76</v>
       </c>
       <c r="J156" s="6" t="s">
@@ -9635,10 +9639,10 @@
       <c r="G157" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="H157" s="6">
+      <c r="H157" s="9">
         <v>926.56</v>
       </c>
-      <c r="I157" s="6">
+      <c r="I157" s="9">
         <v>926.56</v>
       </c>
       <c r="J157" s="6" t="s">
@@ -9676,10 +9680,10 @@
       <c r="G158" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="H158" s="6">
+      <c r="H158" s="9">
         <v>6997.43</v>
       </c>
-      <c r="I158" s="6">
+      <c r="I158" s="9">
         <v>6997.43</v>
       </c>
       <c r="J158" s="6" t="s">
@@ -9706,7 +9710,7 @@
         <v>118</v>
       </c>
       <c r="E159" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F159" s="6" t="s">
         <v>604</v>
@@ -9714,10 +9718,10 @@
       <c r="G159" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="H159" s="6">
+      <c r="H159" s="9">
         <v>579.24</v>
       </c>
-      <c r="I159" s="6">
+      <c r="I159" s="9">
         <v>579.24</v>
       </c>
       <c r="J159" s="6" t="s">
@@ -9744,7 +9748,7 @@
         <v>133</v>
       </c>
       <c r="E160" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F160" s="6" t="s">
         <v>648</v>
@@ -9752,10 +9756,10 @@
       <c r="G160" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="H160" s="6">
+      <c r="H160" s="9">
         <v>4491.5200000000004</v>
       </c>
-      <c r="I160" s="6">
+      <c r="I160" s="9">
         <v>4491.5200000000004</v>
       </c>
       <c r="J160" s="6" t="s">
@@ -9793,10 +9797,10 @@
       <c r="G161" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="H161" s="6">
+      <c r="H161" s="9">
         <v>51870.83</v>
       </c>
-      <c r="I161" s="6">
+      <c r="I161" s="9">
         <v>51870.83</v>
       </c>
       <c r="J161" s="6" t="s">
@@ -9823,7 +9827,7 @@
         <v>628</v>
       </c>
       <c r="E162" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F162" s="6" t="s">
         <v>314</v>
@@ -9831,10 +9835,10 @@
       <c r="G162" s="6" t="s">
         <v>653</v>
       </c>
-      <c r="H162" s="6">
+      <c r="H162" s="9">
         <v>2803.52</v>
       </c>
-      <c r="I162" s="6">
+      <c r="I162" s="9">
         <v>2838.28</v>
       </c>
       <c r="J162" s="6" t="s">
@@ -9872,10 +9876,10 @@
       <c r="G163" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="H163" s="6">
+      <c r="H163" s="9">
         <v>72140.210000000006</v>
       </c>
-      <c r="I163" s="6">
+      <c r="I163" s="9">
         <v>72140.210000000006</v>
       </c>
       <c r="J163" s="6" t="s">
@@ -9902,7 +9906,7 @@
         <v>147</v>
       </c>
       <c r="E164" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F164" s="6" t="s">
         <v>507</v>
@@ -9910,10 +9914,10 @@
       <c r="G164" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="H164" s="6">
+      <c r="H164" s="9">
         <v>2606.2199999999998</v>
       </c>
-      <c r="I164" s="6">
+      <c r="I164" s="9">
         <v>2606.2199999999998</v>
       </c>
       <c r="J164" s="6" t="s">
@@ -9951,10 +9955,10 @@
       <c r="G165" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="H165" s="6">
+      <c r="H165" s="9">
         <v>7609.73</v>
       </c>
-      <c r="I165" s="6">
+      <c r="I165" s="9">
         <v>7609.72</v>
       </c>
       <c r="J165" s="6" t="s">
@@ -9992,10 +9996,10 @@
       <c r="G166" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="H166" s="6">
+      <c r="H166" s="9">
         <v>25398.44</v>
       </c>
-      <c r="I166" s="6">
+      <c r="I166" s="9">
         <v>25398.44</v>
       </c>
       <c r="J166" s="6" t="s">
@@ -10022,18 +10026,18 @@
         <v>666</v>
       </c>
       <c r="E167" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F167" s="6" t="s">
         <v>667</v>
       </c>
       <c r="G167" s="6" t="s">
-        <v>1058</v>
-      </c>
-      <c r="H167" s="6">
+        <v>1057</v>
+      </c>
+      <c r="H167" s="9">
         <v>32999.120000000003</v>
       </c>
-      <c r="I167" s="6">
+      <c r="I167" s="9">
         <v>32999.120000000003</v>
       </c>
       <c r="J167" s="6" t="s">
@@ -10060,15 +10064,15 @@
         <v>284</v>
       </c>
       <c r="E168" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="G168" s="6" t="s">
         <v>670</v>
       </c>
-      <c r="H168" s="6">
+      <c r="H168" s="9">
         <v>2461.77</v>
       </c>
-      <c r="I168" s="6">
+      <c r="I168" s="9">
         <v>2461.77</v>
       </c>
       <c r="J168" s="6" t="s">
@@ -10104,12 +10108,12 @@
         <v>460</v>
       </c>
       <c r="G169" s="6" t="s">
-        <v>1059</v>
-      </c>
-      <c r="H169" s="6">
+        <v>1058</v>
+      </c>
+      <c r="H169" s="9">
         <v>149450</v>
       </c>
-      <c r="I169" s="6">
+      <c r="I169" s="9">
         <v>149450</v>
       </c>
       <c r="J169" s="6" t="s">
@@ -10136,7 +10140,7 @@
         <v>599</v>
       </c>
       <c r="E170" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F170" s="6" t="s">
         <v>678</v>
@@ -10144,10 +10148,10 @@
       <c r="G170" s="6" t="s">
         <v>679</v>
       </c>
-      <c r="H170" s="6">
+      <c r="H170" s="9">
         <v>1332.25</v>
       </c>
-      <c r="I170" s="6">
+      <c r="I170" s="9">
         <v>1332.25</v>
       </c>
       <c r="J170" s="6" t="s">
@@ -10174,7 +10178,7 @@
         <v>203</v>
       </c>
       <c r="E171" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F171" s="6" t="s">
         <v>660</v>
@@ -10182,10 +10186,10 @@
       <c r="G171" s="6" t="s">
         <v>682</v>
       </c>
-      <c r="H171" s="6">
+      <c r="H171" s="9">
         <v>315.11</v>
       </c>
-      <c r="I171" s="6">
+      <c r="I171" s="9">
         <v>289.62</v>
       </c>
       <c r="J171" s="6" t="s">
@@ -10212,7 +10216,7 @@
         <v>206</v>
       </c>
       <c r="E172" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F172" s="6" t="s">
         <v>317</v>
@@ -10220,10 +10224,10 @@
       <c r="G172" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="H172" s="6">
+      <c r="H172" s="9">
         <v>140.18</v>
       </c>
-      <c r="I172" s="6">
+      <c r="I172" s="9">
         <v>140.18</v>
       </c>
       <c r="J172" s="6" t="s">
@@ -10261,10 +10265,10 @@
       <c r="G173" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="H173" s="6">
+      <c r="H173" s="9">
         <v>19690.16</v>
       </c>
-      <c r="I173" s="6">
+      <c r="I173" s="9">
         <v>19690.16</v>
       </c>
       <c r="J173" s="6" t="s">
@@ -10302,10 +10306,10 @@
       <c r="G174" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="H174" s="6">
+      <c r="H174" s="9">
         <v>15675.79</v>
       </c>
-      <c r="I174" s="6">
+      <c r="I174" s="9">
         <v>15675.79</v>
       </c>
       <c r="J174" s="6" t="s">
@@ -10332,7 +10336,7 @@
         <v>603</v>
       </c>
       <c r="E175" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F175" s="6" t="s">
         <v>689</v>
@@ -10340,10 +10344,10 @@
       <c r="G175" s="6" t="s">
         <v>690</v>
       </c>
-      <c r="H175" s="6">
+      <c r="H175" s="9">
         <v>767.49</v>
       </c>
-      <c r="I175" s="6">
+      <c r="I175" s="9">
         <v>1737.72</v>
       </c>
       <c r="J175" s="6" t="s">
@@ -10370,15 +10374,15 @@
         <v>206</v>
       </c>
       <c r="E176" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="G176" s="6" t="s">
         <v>695</v>
       </c>
-      <c r="H176" s="6">
+      <c r="H176" s="9">
         <v>1062.53</v>
       </c>
-      <c r="I176" s="6">
+      <c r="I176" s="9">
         <v>1062.53</v>
       </c>
       <c r="J176" s="6" t="s">
@@ -10405,18 +10409,18 @@
         <v>84</v>
       </c>
       <c r="E177" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F177" s="6" t="s">
         <v>667</v>
       </c>
       <c r="G177" s="6" t="s">
-        <v>1060</v>
-      </c>
-      <c r="H177" s="6">
+        <v>1059</v>
+      </c>
+      <c r="H177" s="9">
         <v>577.01</v>
       </c>
-      <c r="I177" s="6">
+      <c r="I177" s="9">
         <v>579.24</v>
       </c>
       <c r="J177" s="6" t="s">
@@ -10443,7 +10447,7 @@
         <v>6</v>
       </c>
       <c r="E178" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F178" s="6" t="s">
         <v>707</v>
@@ -10451,17 +10455,17 @@
       <c r="G178" s="6" t="s">
         <v>709</v>
       </c>
-      <c r="H178" s="6">
+      <c r="H178" s="9">
         <v>1607.39</v>
       </c>
-      <c r="I178" s="6">
+      <c r="I178" s="9">
         <v>1592.91</v>
       </c>
       <c r="J178" s="6" t="s">
+        <v>1060</v>
+      </c>
+      <c r="K178" s="6" t="s">
         <v>1061</v>
-      </c>
-      <c r="K178" s="6" t="s">
-        <v>1062</v>
       </c>
       <c r="L178" s="6" t="s">
         <v>15</v>
@@ -10481,7 +10485,7 @@
         <v>481</v>
       </c>
       <c r="E179" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F179" s="6" t="s">
         <v>702</v>
@@ -10489,17 +10493,17 @@
       <c r="G179" s="6" t="s">
         <v>710</v>
       </c>
-      <c r="H179" s="6">
+      <c r="H179" s="9">
         <v>608.20000000000005</v>
       </c>
-      <c r="I179" s="6">
+      <c r="I179" s="9">
         <v>608.20000000000005</v>
       </c>
       <c r="J179" s="6" t="s">
+        <v>1062</v>
+      </c>
+      <c r="K179" s="6" t="s">
         <v>1063</v>
-      </c>
-      <c r="K179" s="6" t="s">
-        <v>1064</v>
       </c>
       <c r="L179" s="6" t="s">
         <v>15</v>
@@ -10522,7 +10526,7 @@
         <v>711</v>
       </c>
       <c r="E180" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F180" s="6" t="s">
         <v>712</v>
@@ -10530,10 +10534,10 @@
       <c r="G180" s="6" t="s">
         <v>713</v>
       </c>
-      <c r="H180" s="6">
+      <c r="H180" s="9">
         <v>1447.52</v>
       </c>
-      <c r="I180" s="6">
+      <c r="I180" s="9">
         <v>1447.52</v>
       </c>
       <c r="J180" s="6" t="s">
@@ -10560,7 +10564,7 @@
         <v>481</v>
       </c>
       <c r="E181" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F181" s="6" t="s">
         <v>623</v>
@@ -10568,10 +10572,10 @@
       <c r="G181" s="6" t="s">
         <v>690</v>
       </c>
-      <c r="H181" s="6">
+      <c r="H181" s="9">
         <v>269.35000000000002</v>
       </c>
-      <c r="I181" s="6">
+      <c r="I181" s="9">
         <v>269.35000000000002</v>
       </c>
       <c r="J181" s="6" t="s">
@@ -10598,7 +10602,7 @@
         <v>219</v>
       </c>
       <c r="E182" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F182" s="6" t="s">
         <v>718</v>
@@ -10606,10 +10610,10 @@
       <c r="G182" s="6" t="s">
         <v>719</v>
       </c>
-      <c r="H182" s="6">
+      <c r="H182" s="9">
         <v>289.33</v>
       </c>
-      <c r="I182" s="6">
+      <c r="I182" s="9">
         <v>289.33</v>
       </c>
       <c r="J182" s="6" t="s">
@@ -10636,15 +10640,15 @@
         <v>242</v>
       </c>
       <c r="E183" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="G183" s="6" t="s">
         <v>625</v>
       </c>
-      <c r="H183" s="6">
+      <c r="H183" s="9">
         <v>1071.5899999999999</v>
       </c>
-      <c r="I183" s="6">
+      <c r="I183" s="9">
         <v>1071.5899999999999</v>
       </c>
       <c r="J183" s="6" t="s">
@@ -10671,22 +10675,22 @@
         <v>579</v>
       </c>
       <c r="E184" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="G184" s="6" t="s">
         <v>722</v>
       </c>
-      <c r="H184" s="6">
+      <c r="H184" s="9">
         <v>2592.1</v>
       </c>
-      <c r="I184" s="6">
+      <c r="I184" s="9">
         <v>2606.58</v>
       </c>
       <c r="J184" s="6" t="s">
+        <v>1064</v>
+      </c>
+      <c r="K184" s="6" t="s">
         <v>1065</v>
-      </c>
-      <c r="K184" s="6" t="s">
-        <v>1066</v>
       </c>
       <c r="L184" s="6" t="s">
         <v>45</v>
@@ -10706,18 +10710,18 @@
         <v>6</v>
       </c>
       <c r="E185" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F185" s="6" t="s">
         <v>707</v>
       </c>
       <c r="G185" s="6" t="s">
-        <v>1067</v>
-      </c>
-      <c r="H185" s="6">
+        <v>1066</v>
+      </c>
+      <c r="H185" s="9">
         <v>1448.1</v>
       </c>
-      <c r="I185" s="6">
+      <c r="I185" s="9">
         <v>1448.1</v>
       </c>
       <c r="J185" s="6" t="s">
@@ -10744,7 +10748,7 @@
         <v>94</v>
       </c>
       <c r="E186" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F186" s="6" t="s">
         <v>720</v>
@@ -10752,10 +10756,10 @@
       <c r="G186" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="H186" s="6">
+      <c r="H186" s="9">
         <v>572.54999999999995</v>
       </c>
-      <c r="I186" s="6">
+      <c r="I186" s="9">
         <v>572.54999999999995</v>
       </c>
       <c r="J186" s="6" t="s">
@@ -10782,7 +10786,7 @@
         <v>6</v>
       </c>
       <c r="E187" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F187" s="6" t="s">
         <v>726</v>
@@ -10790,10 +10794,10 @@
       <c r="G187" s="6" t="s">
         <v>727</v>
       </c>
-      <c r="H187" s="6">
+      <c r="H187" s="9">
         <v>863.07</v>
       </c>
-      <c r="I187" s="6">
+      <c r="I187" s="9">
         <v>863.07</v>
       </c>
       <c r="J187" s="6" t="s">
@@ -10820,7 +10824,7 @@
         <v>266</v>
       </c>
       <c r="E188" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F188" s="6" t="s">
         <v>508</v>
@@ -10828,17 +10832,17 @@
       <c r="G188" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="H188" s="6">
+      <c r="H188" s="9">
         <v>2768.48</v>
       </c>
-      <c r="I188" s="6">
+      <c r="I188" s="9">
         <v>2768.48</v>
       </c>
       <c r="J188" s="6" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="K188" s="6" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="L188" s="6" t="s">
         <v>45</v>
@@ -10858,7 +10862,7 @@
         <v>32</v>
       </c>
       <c r="E189" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F189" s="6" t="s">
         <v>729</v>
@@ -10866,10 +10870,10 @@
       <c r="G189" s="6" t="s">
         <v>730</v>
       </c>
-      <c r="H189" s="6">
+      <c r="H189" s="9">
         <v>219.87</v>
       </c>
-      <c r="I189" s="6">
+      <c r="I189" s="9">
         <v>219.87</v>
       </c>
       <c r="J189" s="6" t="s">
@@ -10896,15 +10900,15 @@
         <v>32</v>
       </c>
       <c r="E190" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="G190" s="6" t="s">
         <v>734</v>
       </c>
-      <c r="H190" s="6">
+      <c r="H190" s="9">
         <v>113.82</v>
       </c>
-      <c r="I190" s="6">
+      <c r="I190" s="9">
         <v>115.85</v>
       </c>
       <c r="J190" s="6" t="s">
@@ -10942,10 +10946,10 @@
       <c r="G191" s="6" t="s">
         <v>737</v>
       </c>
-      <c r="H191" s="6">
+      <c r="H191" s="9">
         <v>46419.89</v>
       </c>
-      <c r="I191" s="6">
+      <c r="I191" s="9">
         <v>46419.89</v>
       </c>
       <c r="J191" s="6" t="s">
@@ -10972,7 +10976,7 @@
         <v>6</v>
       </c>
       <c r="E192" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F192" s="6" t="s">
         <v>689</v>
@@ -10980,10 +10984,10 @@
       <c r="G192" s="6" t="s">
         <v>740</v>
       </c>
-      <c r="H192" s="6">
+      <c r="H192" s="9">
         <v>1294.8900000000001</v>
       </c>
-      <c r="I192" s="6">
+      <c r="I192" s="9">
         <v>1294.8900000000001</v>
       </c>
       <c r="J192" s="6" t="s">
@@ -11010,7 +11014,7 @@
         <v>232</v>
       </c>
       <c r="E193" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F193" s="6" t="s">
         <v>702</v>
@@ -11018,10 +11022,10 @@
       <c r="G193" s="6" t="s">
         <v>744</v>
       </c>
-      <c r="H193" s="6">
+      <c r="H193" s="9">
         <v>324.3</v>
       </c>
-      <c r="I193" s="6">
+      <c r="I193" s="9">
         <v>324.3</v>
       </c>
       <c r="J193" s="6" t="s">
@@ -11048,7 +11052,7 @@
         <v>242</v>
       </c>
       <c r="E194" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F194" s="6" t="s">
         <v>620</v>
@@ -11056,10 +11060,10 @@
       <c r="G194" s="6" t="s">
         <v>746</v>
       </c>
-      <c r="H194" s="6">
+      <c r="H194" s="9">
         <v>639.54999999999995</v>
       </c>
-      <c r="I194" s="6">
+      <c r="I194" s="9">
         <v>639.54999999999995</v>
       </c>
       <c r="J194" s="6" t="s">
@@ -11086,7 +11090,7 @@
         <v>242</v>
       </c>
       <c r="E195" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F195" s="6" t="s">
         <v>748</v>
@@ -11094,10 +11098,10 @@
       <c r="G195" s="6" t="s">
         <v>625</v>
       </c>
-      <c r="H195" s="6">
+      <c r="H195" s="9">
         <v>573.45000000000005</v>
       </c>
-      <c r="I195" s="6">
+      <c r="I195" s="9">
         <v>573.45000000000005</v>
       </c>
       <c r="J195" s="6" t="s">
@@ -11124,7 +11128,7 @@
         <v>94</v>
       </c>
       <c r="E196" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F196" s="6" t="s">
         <v>718</v>
@@ -11132,10 +11136,10 @@
       <c r="G196" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="H196" s="6">
+      <c r="H196" s="9">
         <v>3475.44</v>
       </c>
-      <c r="I196" s="6">
+      <c r="I196" s="9">
         <v>3475.44</v>
       </c>
       <c r="J196" s="6" t="s">
@@ -11173,10 +11177,10 @@
       <c r="G197" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="H197" s="6">
+      <c r="H197" s="9">
         <v>868.74</v>
       </c>
-      <c r="I197" s="6">
+      <c r="I197" s="9">
         <v>868.74</v>
       </c>
       <c r="J197" s="6" t="s">
@@ -11209,12 +11213,12 @@
         <v>2</v>
       </c>
       <c r="G198" s="6" t="s">
-        <v>1069</v>
-      </c>
-      <c r="H198" s="6">
+        <v>1068</v>
+      </c>
+      <c r="H198" s="9">
         <v>5952.23</v>
       </c>
-      <c r="I198" s="6">
+      <c r="I198" s="9">
         <v>5952.23</v>
       </c>
       <c r="J198" s="6" t="s">
@@ -11241,15 +11245,15 @@
         <v>512</v>
       </c>
       <c r="E199" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="G199" s="6" t="s">
-        <v>1070</v>
-      </c>
-      <c r="H199" s="6">
+        <v>1069</v>
+      </c>
+      <c r="H199" s="9">
         <v>143.94</v>
       </c>
-      <c r="I199" s="6">
+      <c r="I199" s="9">
         <v>144.81</v>
       </c>
       <c r="J199" s="6" t="s">
@@ -11276,18 +11280,18 @@
         <v>284</v>
       </c>
       <c r="E200" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F200" s="6" t="s">
         <v>707</v>
       </c>
       <c r="G200" s="6" t="s">
-        <v>1071</v>
-      </c>
-      <c r="H200" s="6">
+        <v>1070</v>
+      </c>
+      <c r="H200" s="9">
         <v>543.33000000000004</v>
       </c>
-      <c r="I200" s="6">
+      <c r="I200" s="9">
         <v>543.33000000000004</v>
       </c>
       <c r="J200" s="6" t="s">
@@ -11314,7 +11318,7 @@
         <v>28</v>
       </c>
       <c r="E201" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F201" s="6" t="s">
         <v>590</v>
@@ -11322,10 +11326,10 @@
       <c r="G201" s="6" t="s">
         <v>760</v>
       </c>
-      <c r="H201" s="6">
+      <c r="H201" s="9">
         <v>208.53</v>
       </c>
-      <c r="I201" s="6">
+      <c r="I201" s="9">
         <v>208.53</v>
       </c>
       <c r="J201" s="6" t="s">
@@ -11352,7 +11356,7 @@
         <v>452</v>
       </c>
       <c r="E202" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F202" s="6" t="s">
         <v>762</v>
@@ -11360,10 +11364,10 @@
       <c r="G202" s="6" t="s">
         <v>763</v>
       </c>
-      <c r="H202" s="6">
+      <c r="H202" s="9">
         <v>1900</v>
       </c>
-      <c r="I202" s="6">
+      <c r="I202" s="9">
         <v>1900</v>
       </c>
       <c r="J202" s="6" t="s">
@@ -11390,7 +11394,7 @@
         <v>6</v>
       </c>
       <c r="E203" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F203" s="6" t="s">
         <v>227</v>
@@ -11398,10 +11402,10 @@
       <c r="G203" s="6" t="s">
         <v>765</v>
       </c>
-      <c r="H203" s="6">
+      <c r="H203" s="9">
         <v>2316.96</v>
       </c>
-      <c r="I203" s="6">
+      <c r="I203" s="9">
         <v>2316.96</v>
       </c>
       <c r="J203" s="6" t="s">
@@ -11428,7 +11432,7 @@
         <v>109</v>
       </c>
       <c r="E204" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F204" s="6" t="s">
         <v>590</v>
@@ -11436,10 +11440,10 @@
       <c r="G204" s="6" t="s">
         <v>768</v>
       </c>
-      <c r="H204" s="6">
+      <c r="H204" s="9">
         <v>560.70000000000005</v>
       </c>
-      <c r="I204" s="6">
+      <c r="I204" s="9">
         <v>560.70000000000005</v>
       </c>
       <c r="J204" s="6" t="s">
@@ -11466,7 +11470,7 @@
         <v>603</v>
       </c>
       <c r="E205" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F205" s="6" t="s">
         <v>590</v>
@@ -11474,10 +11478,10 @@
       <c r="G205" s="6" t="s">
         <v>770</v>
       </c>
-      <c r="H205" s="6">
+      <c r="H205" s="9">
         <v>487.36</v>
       </c>
-      <c r="I205" s="6">
+      <c r="I205" s="9">
         <v>487.36</v>
       </c>
       <c r="J205" s="6" t="s">
@@ -11487,7 +11491,7 @@
         <v>771</v>
       </c>
       <c r="L205" s="6" t="s">
-        <v>772</v>
+        <v>15</v>
       </c>
       <c r="M205" s="6" t="s">
         <v>718</v>
@@ -11504,22 +11508,22 @@
         <v>203</v>
       </c>
       <c r="E206" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="G206" s="6" t="s">
         <v>768</v>
       </c>
-      <c r="H206" s="6">
+      <c r="H206" s="9">
         <v>243.56</v>
       </c>
-      <c r="I206" s="6">
+      <c r="I206" s="9">
         <v>243.56</v>
       </c>
       <c r="J206" s="6" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="K206" s="6" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="L206" s="6" t="s">
         <v>15</v>
@@ -11536,28 +11540,28 @@
         <v>21</v>
       </c>
       <c r="C207" s="6" t="s">
+        <v>773</v>
+      </c>
+      <c r="E207" s="6" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F207" s="6" t="s">
         <v>774</v>
-      </c>
-      <c r="E207" s="6" t="s">
-        <v>1023</v>
-      </c>
-      <c r="F207" s="6" t="s">
-        <v>775</v>
       </c>
       <c r="G207" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="H207" s="6">
+      <c r="H207" s="9">
         <v>4840</v>
       </c>
-      <c r="I207" s="6">
+      <c r="I207" s="9">
         <v>4840</v>
       </c>
       <c r="J207" s="6" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="K207" s="6" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="L207" s="6" t="s">
         <v>15</v>
@@ -11577,25 +11581,25 @@
         <v>624</v>
       </c>
       <c r="E208" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F208" s="6" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="G208" s="6" t="s">
         <v>625</v>
       </c>
-      <c r="H208" s="6">
+      <c r="H208" s="9">
         <v>3127.68</v>
       </c>
-      <c r="I208" s="6">
+      <c r="I208" s="9">
         <v>3127.68</v>
       </c>
       <c r="J208" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="K208" s="6" t="s">
         <v>778</v>
-      </c>
-      <c r="K208" s="6" t="s">
-        <v>779</v>
       </c>
       <c r="L208" s="6" t="s">
         <v>15</v>
@@ -11612,28 +11616,28 @@
         <v>21</v>
       </c>
       <c r="C209" s="6" t="s">
+        <v>779</v>
+      </c>
+      <c r="E209" s="6" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F209" s="6" t="s">
         <v>780</v>
       </c>
-      <c r="E209" s="6" t="s">
-        <v>1023</v>
-      </c>
-      <c r="F209" s="6" t="s">
+      <c r="G209" s="6" t="s">
         <v>781</v>
       </c>
-      <c r="G209" s="6" t="s">
+      <c r="H209" s="9">
+        <v>2500</v>
+      </c>
+      <c r="I209" s="9">
+        <v>2500</v>
+      </c>
+      <c r="J209" s="6" t="s">
         <v>782</v>
       </c>
-      <c r="H209" s="6">
-        <v>2500</v>
-      </c>
-      <c r="I209" s="6">
-        <v>2500</v>
-      </c>
-      <c r="J209" s="6" t="s">
-        <v>783</v>
-      </c>
       <c r="K209" s="6" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="L209" s="6" t="s">
         <v>15</v>
@@ -11653,7 +11657,7 @@
         <v>235</v>
       </c>
       <c r="E210" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F210" s="6" t="s">
         <v>319</v>
@@ -11661,17 +11665,17 @@
       <c r="G210" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="H210" s="6">
+      <c r="H210" s="9">
         <v>724.05</v>
       </c>
-      <c r="I210" s="6">
+      <c r="I210" s="9">
         <v>724.05</v>
       </c>
       <c r="J210" s="6" t="s">
+        <v>783</v>
+      </c>
+      <c r="K210" s="6" t="s">
         <v>784</v>
-      </c>
-      <c r="K210" s="6" t="s">
-        <v>785</v>
       </c>
       <c r="L210" s="6" t="s">
         <v>45</v>
@@ -11688,28 +11692,28 @@
         <v>402</v>
       </c>
       <c r="C211" s="6" t="s">
+        <v>785</v>
+      </c>
+      <c r="E211" s="6" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F211" s="6" t="s">
         <v>786</v>
       </c>
-      <c r="E211" s="6" t="s">
-        <v>1023</v>
-      </c>
-      <c r="F211" s="6" t="s">
+      <c r="G211" s="6" t="s">
         <v>787</v>
       </c>
-      <c r="G211" s="6" t="s">
+      <c r="H211" s="9">
+        <v>1361.21</v>
+      </c>
+      <c r="I211" s="9">
+        <v>1361.21</v>
+      </c>
+      <c r="J211" s="6" t="s">
         <v>788</v>
       </c>
-      <c r="H211" s="6">
-        <v>1361.21</v>
-      </c>
-      <c r="I211" s="6">
-        <v>1361.21</v>
-      </c>
-      <c r="J211" s="6" t="s">
+      <c r="K211" s="6" t="s">
         <v>789</v>
-      </c>
-      <c r="K211" s="6" t="s">
-        <v>790</v>
       </c>
       <c r="L211" s="6" t="s">
         <v>45</v>
@@ -11726,28 +11730,28 @@
         <v>402</v>
       </c>
       <c r="C212" s="6" t="s">
+        <v>790</v>
+      </c>
+      <c r="E212" s="6" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F212" s="6" t="s">
         <v>791</v>
       </c>
-      <c r="E212" s="6" t="s">
-        <v>1023</v>
-      </c>
-      <c r="F212" s="6" t="s">
+      <c r="G212" s="6" t="s">
         <v>792</v>
       </c>
-      <c r="G212" s="6" t="s">
+      <c r="H212" s="9">
+        <v>2461.77</v>
+      </c>
+      <c r="I212" s="9">
+        <v>2461.77</v>
+      </c>
+      <c r="J212" s="6" t="s">
         <v>793</v>
       </c>
-      <c r="H212" s="6">
-        <v>2461.77</v>
-      </c>
-      <c r="I212" s="6">
-        <v>2461.77</v>
-      </c>
-      <c r="J212" s="6" t="s">
-        <v>794</v>
-      </c>
       <c r="K212" s="6" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="L212" s="6" t="s">
         <v>45</v>
@@ -11764,10 +11768,10 @@
         <v>0</v>
       </c>
       <c r="C213" s="6" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E213" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F213" s="6" t="s">
         <v>369</v>
@@ -11775,17 +11779,17 @@
       <c r="G213" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="H213" s="6">
+      <c r="H213" s="9">
         <v>14382.07</v>
       </c>
-      <c r="I213" s="6">
+      <c r="I213" s="9">
         <v>14382.07</v>
       </c>
       <c r="J213" s="6" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="K213" s="6" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="L213" s="6" t="s">
         <v>45</v>
@@ -11805,7 +11809,7 @@
         <v>6</v>
       </c>
       <c r="E214" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F214" s="6" t="s">
         <v>736</v>
@@ -11813,23 +11817,23 @@
       <c r="G214" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="H214" s="6">
+      <c r="H214" s="9">
         <v>2316.96</v>
       </c>
-      <c r="I214" s="6">
+      <c r="I214" s="9">
         <v>2316.96</v>
       </c>
       <c r="J214" s="6" t="s">
+        <v>796</v>
+      </c>
+      <c r="K214" s="6" t="s">
         <v>797</v>
       </c>
-      <c r="K214" s="6" t="s">
+      <c r="L214" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M214" s="6" t="s">
         <v>798</v>
-      </c>
-      <c r="L214" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="M214" s="6" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="215" spans="1:13" s="6" customFormat="1">
@@ -11843,28 +11847,28 @@
         <v>512</v>
       </c>
       <c r="E215" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="G215" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="H215" s="6">
+      <c r="H215" s="9">
         <v>1448.1</v>
       </c>
-      <c r="I215" s="6">
+      <c r="I215" s="9">
         <v>1448.1</v>
       </c>
       <c r="J215" s="6" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="K215" s="6" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="L215" s="6" t="s">
         <v>15</v>
       </c>
       <c r="M215" s="6" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="216" spans="1:13" s="6" customFormat="1" ht="25.5">
@@ -11878,31 +11882,31 @@
         <v>512</v>
       </c>
       <c r="E216" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F216" s="6" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G216" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="H216" s="6">
+      <c r="H216" s="9">
         <v>144.81</v>
       </c>
-      <c r="I216" s="6">
+      <c r="I216" s="9">
         <v>144.81</v>
       </c>
       <c r="J216" s="6" t="s">
+        <v>801</v>
+      </c>
+      <c r="K216" s="6" t="s">
         <v>802</v>
       </c>
-      <c r="K216" s="6" t="s">
-        <v>803</v>
-      </c>
       <c r="L216" s="6" t="s">
         <v>15</v>
       </c>
       <c r="M216" s="6" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="217" spans="1:13" s="6" customFormat="1" ht="38.25">
@@ -11927,23 +11931,23 @@
       <c r="G217" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="H217" s="6">
+      <c r="H217" s="9">
         <v>38685.07</v>
       </c>
-      <c r="I217" s="6">
+      <c r="I217" s="9">
         <v>38685.07</v>
       </c>
       <c r="J217" s="6" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="K217" s="6" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="L217" s="6" t="s">
         <v>15</v>
       </c>
       <c r="M217" s="6" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="218" spans="1:13" s="6" customFormat="1">
@@ -11957,7 +11961,7 @@
         <v>284</v>
       </c>
       <c r="E218" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F218" s="6" t="s">
         <v>620</v>
@@ -11965,10 +11969,10 @@
       <c r="G218" s="6" t="s">
         <v>670</v>
       </c>
-      <c r="H218" s="6">
+      <c r="H218" s="9">
         <v>809.52</v>
       </c>
-      <c r="I218" s="6">
+      <c r="I218" s="9">
         <v>809.52</v>
       </c>
       <c r="J218" s="6" t="s">
@@ -11995,7 +11999,7 @@
         <v>71</v>
       </c>
       <c r="D219" s="6" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E219" s="6" t="s">
         <v>73</v>
@@ -12006,17 +12010,17 @@
       <c r="G219" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="H219" s="6">
+      <c r="H219" s="9">
         <v>22925.83</v>
       </c>
-      <c r="I219" s="6">
+      <c r="I219" s="9">
         <v>22925.83</v>
       </c>
       <c r="J219" s="6" t="s">
+        <v>805</v>
+      </c>
+      <c r="K219" s="6" t="s">
         <v>806</v>
-      </c>
-      <c r="K219" s="6" t="s">
-        <v>807</v>
       </c>
       <c r="L219" s="6" t="s">
         <v>15</v>
@@ -12033,25 +12037,25 @@
         <v>122</v>
       </c>
       <c r="C220" s="6" t="s">
+        <v>807</v>
+      </c>
+      <c r="E220" s="6" t="s">
+        <v>1023</v>
+      </c>
+      <c r="G220" s="6" t="s">
         <v>808</v>
       </c>
-      <c r="E220" s="6" t="s">
-        <v>1024</v>
-      </c>
-      <c r="G220" s="6" t="s">
+      <c r="H220" s="9">
+        <v>347.54</v>
+      </c>
+      <c r="I220" s="9">
+        <v>347.54</v>
+      </c>
+      <c r="J220" s="6" t="s">
         <v>809</v>
       </c>
-      <c r="H220" s="6">
-        <v>347.54</v>
-      </c>
-      <c r="I220" s="6">
-        <v>347.54</v>
-      </c>
-      <c r="J220" s="6" t="s">
+      <c r="K220" s="6" t="s">
         <v>810</v>
-      </c>
-      <c r="K220" s="6" t="s">
-        <v>811</v>
       </c>
       <c r="L220" s="6" t="s">
         <v>45</v>
@@ -12071,7 +12075,7 @@
         <v>32</v>
       </c>
       <c r="E221" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F221" s="6" t="s">
         <v>708</v>
@@ -12079,10 +12083,10 @@
       <c r="G221" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="H221" s="6">
+      <c r="H221" s="9">
         <v>288.89999999999998</v>
       </c>
-      <c r="I221" s="6">
+      <c r="I221" s="9">
         <v>288.89999999999998</v>
       </c>
       <c r="J221" s="6" t="s">
@@ -12109,25 +12113,25 @@
         <v>71</v>
       </c>
       <c r="D222" s="6" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E222" s="6" t="s">
         <v>73</v>
       </c>
       <c r="G222" s="6" t="s">
+        <v>812</v>
+      </c>
+      <c r="H222" s="9">
+        <v>2312.91</v>
+      </c>
+      <c r="I222" s="9">
+        <v>2312.91</v>
+      </c>
+      <c r="J222" s="6" t="s">
         <v>813</v>
       </c>
-      <c r="H222" s="6">
-        <v>2312.91</v>
-      </c>
-      <c r="I222" s="6">
-        <v>2312.91</v>
-      </c>
-      <c r="J222" s="6" t="s">
+      <c r="K222" s="6" t="s">
         <v>814</v>
-      </c>
-      <c r="K222" s="6" t="s">
-        <v>815</v>
       </c>
       <c r="L222" s="6" t="s">
         <v>15</v>
@@ -12147,28 +12151,28 @@
         <v>687</v>
       </c>
       <c r="E223" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F223" s="6" t="s">
+        <v>815</v>
+      </c>
+      <c r="G223" s="6" t="s">
+        <v>1071</v>
+      </c>
+      <c r="H223" s="9">
+        <v>1067.0899999999999</v>
+      </c>
+      <c r="I223" s="9">
+        <v>1067.0899999999999</v>
+      </c>
+      <c r="J223" s="6" t="s">
         <v>816</v>
       </c>
-      <c r="G223" s="6" t="s">
-        <v>1072</v>
-      </c>
-      <c r="H223" s="6">
-        <v>1067.0899999999999</v>
-      </c>
-      <c r="I223" s="6">
-        <v>1067.0899999999999</v>
-      </c>
-      <c r="J223" s="6" t="s">
+      <c r="K223" s="6" t="s">
         <v>817</v>
       </c>
-      <c r="K223" s="6" t="s">
+      <c r="L223" s="6" t="s">
         <v>818</v>
-      </c>
-      <c r="L223" s="6" t="s">
-        <v>819</v>
       </c>
       <c r="M223" s="6" t="s">
         <v>726</v>
@@ -12185,28 +12189,28 @@
         <v>687</v>
       </c>
       <c r="E224" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F224" s="6" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="G224" s="6" t="s">
-        <v>1073</v>
-      </c>
-      <c r="H224" s="6">
+        <v>1072</v>
+      </c>
+      <c r="H224" s="9">
         <v>1039.4100000000001</v>
       </c>
-      <c r="I224" s="6">
+      <c r="I224" s="9">
         <v>1039.4100000000001</v>
       </c>
       <c r="J224" s="6" t="s">
+        <v>822</v>
+      </c>
+      <c r="K224" s="6" t="s">
         <v>823</v>
       </c>
-      <c r="K224" s="6" t="s">
-        <v>824</v>
-      </c>
       <c r="L224" s="6" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="M224" s="6" t="s">
         <v>726</v>
@@ -12223,25 +12227,25 @@
         <v>247</v>
       </c>
       <c r="E225" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F225" s="6" t="s">
+        <v>827</v>
+      </c>
+      <c r="G225" s="6" t="s">
+        <v>1073</v>
+      </c>
+      <c r="H225" s="9">
+        <v>7234.71</v>
+      </c>
+      <c r="I225" s="9">
+        <v>7234.71</v>
+      </c>
+      <c r="J225" s="6" t="s">
         <v>828</v>
       </c>
-      <c r="G225" s="6" t="s">
-        <v>1074</v>
-      </c>
-      <c r="H225" s="6">
-        <v>7234.71</v>
-      </c>
-      <c r="I225" s="6">
-        <v>7234.71</v>
-      </c>
-      <c r="J225" s="6" t="s">
+      <c r="K225" s="6" t="s">
         <v>829</v>
-      </c>
-      <c r="K225" s="6" t="s">
-        <v>830</v>
       </c>
       <c r="L225" s="6" t="s">
         <v>213</v>
@@ -12261,22 +12265,22 @@
         <v>269</v>
       </c>
       <c r="E226" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="G226" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="H226" s="6">
+      <c r="H226" s="9">
         <v>624.20000000000005</v>
       </c>
-      <c r="I226" s="6">
+      <c r="I226" s="9">
         <v>624.20000000000005</v>
       </c>
       <c r="J226" s="6" t="s">
+        <v>830</v>
+      </c>
+      <c r="K226" s="6" t="s">
         <v>831</v>
-      </c>
-      <c r="K226" s="6" t="s">
-        <v>832</v>
       </c>
       <c r="L226" s="6" t="s">
         <v>55</v>
@@ -12296,18 +12300,18 @@
         <v>208</v>
       </c>
       <c r="E227" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F227" s="6" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G227" s="6" t="s">
-        <v>833</v>
-      </c>
-      <c r="H227" s="6">
+        <v>832</v>
+      </c>
+      <c r="H227" s="9">
         <v>264.13</v>
       </c>
-      <c r="I227" s="6">
+      <c r="I227" s="9">
         <v>264.13</v>
       </c>
       <c r="J227" s="6" t="s">
@@ -12334,25 +12338,25 @@
         <v>242</v>
       </c>
       <c r="E228" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F228" s="6" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="G228" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="H228" s="6">
+      <c r="H228" s="9">
         <v>2316.96</v>
       </c>
-      <c r="I228" s="6">
+      <c r="I228" s="9">
         <v>2316.96</v>
       </c>
       <c r="J228" s="6" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="K228" s="6" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="L228" s="6" t="s">
         <v>15</v>
@@ -12372,25 +12376,25 @@
         <v>203</v>
       </c>
       <c r="E229" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F229" s="6" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G229" s="6" t="s">
+        <v>835</v>
+      </c>
+      <c r="H229" s="9">
+        <v>2873.61</v>
+      </c>
+      <c r="I229" s="9">
+        <v>2873.61</v>
+      </c>
+      <c r="J229" s="6" t="s">
         <v>836</v>
       </c>
-      <c r="H229" s="6">
-        <v>2873.61</v>
-      </c>
-      <c r="I229" s="6">
-        <v>2873.61</v>
-      </c>
-      <c r="J229" s="6" t="s">
-        <v>837</v>
-      </c>
       <c r="K229" s="6" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="L229" s="6" t="s">
         <v>45</v>
@@ -12410,7 +12414,7 @@
         <v>242</v>
       </c>
       <c r="E230" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F230" s="6" t="s">
         <v>502</v>
@@ -12418,17 +12422,17 @@
       <c r="G230" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="H230" s="6">
+      <c r="H230" s="9">
         <v>578.66</v>
       </c>
-      <c r="I230" s="6">
+      <c r="I230" s="9">
         <v>578.66</v>
       </c>
       <c r="J230" s="6" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="K230" s="6" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="L230" s="6" t="s">
         <v>15</v>
@@ -12445,25 +12449,25 @@
         <v>402</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E231" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F231" s="6" t="s">
         <v>750</v>
       </c>
-      <c r="H231" s="6" t="s">
+      <c r="H231" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I231" s="6">
+      <c r="I231" s="9">
         <v>3272.71</v>
       </c>
       <c r="J231" s="6" t="s">
+        <v>839</v>
+      </c>
+      <c r="K231" s="6" t="s">
         <v>840</v>
-      </c>
-      <c r="K231" s="6" t="s">
-        <v>841</v>
       </c>
       <c r="L231" s="6" t="s">
         <v>45</v>
@@ -12483,25 +12487,25 @@
         <v>206</v>
       </c>
       <c r="E232" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F232" s="6" t="s">
         <v>720</v>
       </c>
       <c r="G232" s="6" t="s">
+        <v>841</v>
+      </c>
+      <c r="H232" s="9">
+        <v>1150</v>
+      </c>
+      <c r="I232" s="9">
+        <v>1150</v>
+      </c>
+      <c r="J232" s="6" t="s">
         <v>842</v>
       </c>
-      <c r="H232" s="6">
-        <v>1150</v>
-      </c>
-      <c r="I232" s="6">
-        <v>1150</v>
-      </c>
-      <c r="J232" s="6" t="s">
-        <v>843</v>
-      </c>
       <c r="K232" s="6" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="L232" s="6" t="s">
         <v>15</v>
@@ -12521,7 +12525,7 @@
         <v>71</v>
       </c>
       <c r="D233" s="6" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E233" s="6" t="s">
         <v>73</v>
@@ -12532,17 +12536,17 @@
       <c r="G233" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="H233" s="6">
+      <c r="H233" s="9">
         <v>6613.93</v>
       </c>
-      <c r="I233" s="6">
+      <c r="I233" s="9">
         <v>6613.93</v>
       </c>
       <c r="J233" s="6" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="K233" s="6" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="L233" s="6" t="s">
         <v>15</v>
@@ -12573,17 +12577,17 @@
       <c r="G234" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="H234" s="6">
+      <c r="H234" s="9">
         <v>19484.759999999998</v>
       </c>
-      <c r="I234" s="6">
+      <c r="I234" s="9">
         <v>19484.759999999998</v>
       </c>
       <c r="J234" s="6" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="K234" s="6" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="L234" s="6" t="s">
         <v>15</v>
@@ -12603,25 +12607,25 @@
         <v>166</v>
       </c>
       <c r="E235" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F235" s="6" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G235" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="H235" s="6">
+      <c r="H235" s="9">
         <v>1177.48</v>
       </c>
-      <c r="I235" s="6">
+      <c r="I235" s="9">
         <v>1177.48</v>
       </c>
       <c r="J235" s="6" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="K235" s="6" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="L235" s="6" t="s">
         <v>15</v>
@@ -12641,7 +12645,7 @@
         <v>71</v>
       </c>
       <c r="D236" s="6" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E236" s="6" t="s">
         <v>73</v>
@@ -12650,25 +12654,25 @@
         <v>733</v>
       </c>
       <c r="G236" s="6" t="s">
+        <v>848</v>
+      </c>
+      <c r="H236" s="9">
+        <v>42245.29</v>
+      </c>
+      <c r="I236" s="9">
+        <v>42245.29</v>
+      </c>
+      <c r="J236" s="6" t="s">
         <v>849</v>
       </c>
-      <c r="H236" s="6">
-        <v>42245.29</v>
-      </c>
-      <c r="I236" s="6">
-        <v>42245.29</v>
-      </c>
-      <c r="J236" s="6" t="s">
+      <c r="K236" s="6" t="s">
         <v>850</v>
       </c>
-      <c r="K236" s="6" t="s">
-        <v>851</v>
-      </c>
       <c r="L236" s="6" t="s">
         <v>15</v>
       </c>
       <c r="M236" s="6" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="237" spans="1:13" s="6" customFormat="1" ht="25.5">
@@ -12682,7 +12686,7 @@
         <v>71</v>
       </c>
       <c r="D237" s="6" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="E237" s="6" t="s">
         <v>73</v>
@@ -12693,23 +12697,23 @@
       <c r="G237" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="H237" s="6">
+      <c r="H237" s="9">
         <v>838.53</v>
       </c>
-      <c r="I237" s="6">
+      <c r="I237" s="9">
         <v>838.53</v>
       </c>
       <c r="J237" s="6" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="K237" s="6" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="L237" s="6" t="s">
         <v>15</v>
       </c>
       <c r="M237" s="6" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="238" spans="1:13" s="6" customFormat="1">
@@ -12723,7 +12727,7 @@
         <v>579</v>
       </c>
       <c r="E238" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F238" s="6" t="s">
         <v>42</v>
@@ -12731,17 +12735,17 @@
       <c r="G238" s="6" t="s">
         <v>740</v>
       </c>
-      <c r="H238" s="6">
+      <c r="H238" s="9">
         <v>1737.72</v>
       </c>
-      <c r="I238" s="6">
+      <c r="I238" s="9">
         <v>1737.72</v>
       </c>
       <c r="J238" s="6" t="s">
+        <v>853</v>
+      </c>
+      <c r="K238" s="6" t="s">
         <v>854</v>
-      </c>
-      <c r="K238" s="6" t="s">
-        <v>855</v>
       </c>
       <c r="L238" s="6" t="s">
         <v>45</v>
@@ -12761,25 +12765,25 @@
         <v>666</v>
       </c>
       <c r="E239" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F239" s="6" t="s">
+        <v>855</v>
+      </c>
+      <c r="G239" s="6" t="s">
         <v>856</v>
       </c>
-      <c r="G239" s="6" t="s">
+      <c r="H239" s="9">
+        <v>2882.37</v>
+      </c>
+      <c r="I239" s="9">
+        <v>2882.37</v>
+      </c>
+      <c r="J239" s="6" t="s">
         <v>857</v>
       </c>
-      <c r="H239" s="6">
-        <v>2882.37</v>
-      </c>
-      <c r="I239" s="6">
-        <v>2882.37</v>
-      </c>
-      <c r="J239" s="6" t="s">
-        <v>858</v>
-      </c>
       <c r="K239" s="6" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="L239" s="6" t="s">
         <v>45</v>
@@ -12799,25 +12803,25 @@
         <v>22</v>
       </c>
       <c r="E240" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F240" s="6" t="s">
+        <v>858</v>
+      </c>
+      <c r="G240" s="6" t="s">
         <v>859</v>
       </c>
-      <c r="G240" s="6" t="s">
+      <c r="H240" s="9">
+        <v>1353.97</v>
+      </c>
+      <c r="I240" s="9">
+        <v>1353.97</v>
+      </c>
+      <c r="J240" s="6" t="s">
         <v>860</v>
       </c>
-      <c r="H240" s="6">
-        <v>1353.97</v>
-      </c>
-      <c r="I240" s="6">
-        <v>1353.97</v>
-      </c>
-      <c r="J240" s="6" t="s">
-        <v>861</v>
-      </c>
       <c r="K240" s="6" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="L240" s="6" t="s">
         <v>15</v>
@@ -12837,7 +12841,7 @@
         <v>71</v>
       </c>
       <c r="D241" s="6" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E241" s="6" t="s">
         <v>73</v>
@@ -12848,17 +12852,17 @@
       <c r="G241" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="H241" s="6">
+      <c r="H241" s="9">
         <v>8636.81</v>
       </c>
-      <c r="I241" s="6">
+      <c r="I241" s="9">
         <v>8636.81</v>
       </c>
       <c r="J241" s="6" t="s">
+        <v>862</v>
+      </c>
+      <c r="K241" s="6" t="s">
         <v>863</v>
-      </c>
-      <c r="K241" s="6" t="s">
-        <v>864</v>
       </c>
       <c r="L241" s="6" t="s">
         <v>15</v>
@@ -12878,7 +12882,7 @@
         <v>71</v>
       </c>
       <c r="D242" s="6" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="E242" s="6" t="s">
         <v>73</v>
@@ -12887,19 +12891,19 @@
         <v>439</v>
       </c>
       <c r="G242" s="6" t="s">
-        <v>1034</v>
-      </c>
-      <c r="H242" s="6">
+        <v>1033</v>
+      </c>
+      <c r="H242" s="9">
         <v>5431.82</v>
       </c>
-      <c r="I242" s="6">
+      <c r="I242" s="9">
         <v>5431.82</v>
       </c>
       <c r="J242" s="6" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="K242" s="6" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="L242" s="6" t="s">
         <v>15</v>
@@ -12919,7 +12923,7 @@
         <v>123</v>
       </c>
       <c r="E243" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F243" s="6" t="s">
         <v>318</v>
@@ -12927,23 +12931,23 @@
       <c r="G243" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="H243" s="6">
+      <c r="H243" s="9">
         <v>2420</v>
       </c>
-      <c r="I243" s="6">
+      <c r="I243" s="9">
         <v>2420</v>
       </c>
       <c r="J243" s="6" t="s">
+        <v>1074</v>
+      </c>
+      <c r="K243" s="6" t="s">
         <v>1075</v>
       </c>
-      <c r="K243" s="6" t="s">
-        <v>1076</v>
-      </c>
       <c r="L243" s="6" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="M243" s="6" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="244" spans="1:13" s="6" customFormat="1" ht="38.25">
@@ -12954,28 +12958,28 @@
         <v>104</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E244" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F244" s="6" t="s">
         <v>318</v>
       </c>
       <c r="G244" s="6" t="s">
+        <v>869</v>
+      </c>
+      <c r="H244" s="9">
+        <v>2419.2800000000002</v>
+      </c>
+      <c r="I244" s="9">
+        <v>2419.2800000000002</v>
+      </c>
+      <c r="J244" s="6" t="s">
         <v>870</v>
       </c>
-      <c r="H244" s="6">
-        <v>2419.2800000000002</v>
-      </c>
-      <c r="I244" s="6">
-        <v>2419.2800000000002</v>
-      </c>
-      <c r="J244" s="6" t="s">
+      <c r="K244" s="6" t="s">
         <v>871</v>
-      </c>
-      <c r="K244" s="6" t="s">
-        <v>872</v>
       </c>
       <c r="L244" s="6" t="s">
         <v>105</v>
@@ -12995,7 +12999,7 @@
         <v>71</v>
       </c>
       <c r="D245" s="6" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E245" s="6" t="s">
         <v>73</v>
@@ -13004,19 +13008,19 @@
         <v>692</v>
       </c>
       <c r="G245" s="6" t="s">
-        <v>1077</v>
-      </c>
-      <c r="H245" s="6">
+        <v>1076</v>
+      </c>
+      <c r="H245" s="9">
         <v>20273.400000000001</v>
       </c>
-      <c r="I245" s="6">
+      <c r="I245" s="9">
         <v>20273.400000000001</v>
       </c>
       <c r="J245" s="6" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="K245" s="6" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="L245" s="6" t="s">
         <v>15</v>
@@ -13036,31 +13040,31 @@
         <v>481</v>
       </c>
       <c r="E246" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F246" s="6" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="G246" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="H246" s="6">
+      <c r="H246" s="9">
         <v>868.8</v>
       </c>
-      <c r="I246" s="6">
+      <c r="I246" s="9">
         <v>868.8</v>
       </c>
       <c r="J246" s="6" t="s">
+        <v>875</v>
+      </c>
+      <c r="K246" s="6" t="s">
         <v>876</v>
       </c>
-      <c r="K246" s="6" t="s">
+      <c r="L246" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M246" s="6" t="s">
         <v>877</v>
-      </c>
-      <c r="L246" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="M246" s="6" t="s">
-        <v>878</v>
       </c>
     </row>
     <row r="247" spans="1:13" s="6" customFormat="1" ht="25.5">
@@ -13074,31 +13078,31 @@
         <v>137</v>
       </c>
       <c r="E247" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F247" s="6" t="s">
+        <v>879</v>
+      </c>
+      <c r="G247" s="6" t="s">
+        <v>1077</v>
+      </c>
+      <c r="H247" s="9">
+        <v>2374.88</v>
+      </c>
+      <c r="I247" s="9">
+        <v>2374.88</v>
+      </c>
+      <c r="J247" s="6" t="s">
         <v>880</v>
       </c>
-      <c r="G247" s="6" t="s">
-        <v>1078</v>
-      </c>
-      <c r="H247" s="6">
-        <v>2374.88</v>
-      </c>
-      <c r="I247" s="6">
-        <v>2374.88</v>
-      </c>
-      <c r="J247" s="6" t="s">
+      <c r="K247" s="6" t="s">
         <v>881</v>
       </c>
-      <c r="K247" s="6" t="s">
+      <c r="L247" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M247" s="6" t="s">
         <v>882</v>
-      </c>
-      <c r="L247" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="M247" s="6" t="s">
-        <v>883</v>
       </c>
     </row>
     <row r="248" spans="1:13" s="6" customFormat="1" ht="25.5">
@@ -13112,7 +13116,7 @@
         <v>71</v>
       </c>
       <c r="D248" s="6" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E248" s="6" t="s">
         <v>73</v>
@@ -13123,23 +13127,23 @@
       <c r="G248" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="H248" s="6">
+      <c r="H248" s="9">
         <v>8272.07</v>
       </c>
-      <c r="I248" s="6">
+      <c r="I248" s="9">
         <v>8272.07</v>
       </c>
       <c r="J248" s="6" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="K248" s="6" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="L248" s="6" t="s">
         <v>15</v>
       </c>
       <c r="M248" s="6" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="249" spans="1:13" s="6" customFormat="1" ht="38.25">
@@ -13159,28 +13163,28 @@
         <v>73</v>
       </c>
       <c r="F249" s="6" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G249" s="6" t="s">
-        <v>849</v>
-      </c>
-      <c r="H249" s="6">
+        <v>848</v>
+      </c>
+      <c r="H249" s="9">
         <v>22590.38</v>
       </c>
-      <c r="I249" s="6">
+      <c r="I249" s="9">
         <v>22590.38</v>
       </c>
       <c r="J249" s="6" t="s">
+        <v>885</v>
+      </c>
+      <c r="K249" s="6" t="s">
         <v>886</v>
       </c>
-      <c r="K249" s="6" t="s">
-        <v>887</v>
-      </c>
       <c r="L249" s="6" t="s">
         <v>15</v>
       </c>
       <c r="M249" s="6" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="250" spans="1:13" s="6" customFormat="1">
@@ -13191,34 +13195,34 @@
         <v>402</v>
       </c>
       <c r="C250" s="6" t="s">
+        <v>790</v>
+      </c>
+      <c r="E250" s="6" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F250" s="6" t="s">
         <v>791</v>
       </c>
-      <c r="E250" s="6" t="s">
-        <v>1023</v>
-      </c>
-      <c r="F250" s="6" t="s">
-        <v>792</v>
-      </c>
       <c r="G250" s="6" t="s">
-        <v>1079</v>
-      </c>
-      <c r="H250" s="6">
+        <v>1078</v>
+      </c>
+      <c r="H250" s="9">
         <v>2461.77</v>
       </c>
-      <c r="I250" s="6">
+      <c r="I250" s="9">
         <v>2461.77</v>
       </c>
       <c r="J250" s="6" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="K250" s="6" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="L250" s="6" t="s">
         <v>45</v>
       </c>
       <c r="M250" s="6" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="251" spans="1:13" s="6" customFormat="1" ht="25.5">
@@ -13229,34 +13233,34 @@
         <v>402</v>
       </c>
       <c r="C251" s="6" t="s">
+        <v>790</v>
+      </c>
+      <c r="E251" s="6" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F251" s="6" t="s">
         <v>791</v>
       </c>
-      <c r="E251" s="6" t="s">
-        <v>1023</v>
-      </c>
-      <c r="F251" s="6" t="s">
+      <c r="G251" s="6" t="s">
         <v>792</v>
       </c>
-      <c r="G251" s="6" t="s">
-        <v>793</v>
-      </c>
-      <c r="H251" s="6">
+      <c r="H251" s="9">
         <v>2461.77</v>
       </c>
-      <c r="I251" s="6">
+      <c r="I251" s="9">
         <v>2461.77</v>
       </c>
       <c r="J251" s="6" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="K251" s="6" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="L251" s="6" t="s">
         <v>45</v>
       </c>
       <c r="M251" s="6" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="252" spans="1:13" s="6" customFormat="1">
@@ -13267,34 +13271,34 @@
         <v>402</v>
       </c>
       <c r="C252" s="6" t="s">
+        <v>790</v>
+      </c>
+      <c r="E252" s="6" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F252" s="6" t="s">
         <v>791</v>
       </c>
-      <c r="E252" s="6" t="s">
-        <v>1023</v>
-      </c>
-      <c r="F252" s="6" t="s">
-        <v>792</v>
-      </c>
       <c r="G252" s="6" t="s">
-        <v>1079</v>
-      </c>
-      <c r="H252" s="6">
+        <v>1078</v>
+      </c>
+      <c r="H252" s="9">
         <v>2461.77</v>
       </c>
-      <c r="I252" s="6">
+      <c r="I252" s="9">
         <v>2461.77</v>
       </c>
       <c r="J252" s="6" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="K252" s="6" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="L252" s="6" t="s">
         <v>45</v>
       </c>
       <c r="M252" s="6" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="253" spans="1:13" s="6" customFormat="1" ht="25.5">
@@ -13305,34 +13309,34 @@
         <v>21</v>
       </c>
       <c r="C253" s="6" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="E253" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F253" s="6" t="s">
         <v>556</v>
       </c>
       <c r="G253" s="6" t="s">
-        <v>1080</v>
-      </c>
-      <c r="H253" s="6">
+        <v>1079</v>
+      </c>
+      <c r="H253" s="9">
         <v>1500</v>
       </c>
-      <c r="I253" s="6">
+      <c r="I253" s="9">
         <v>1500</v>
       </c>
       <c r="J253" s="6" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="K253" s="6" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="L253" s="6" t="s">
         <v>15</v>
       </c>
       <c r="M253" s="6" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="254" spans="1:13" s="6" customFormat="1">
@@ -13346,25 +13350,25 @@
         <v>269</v>
       </c>
       <c r="E254" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F254" s="6" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G254" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="H254" s="6">
+      <c r="H254" s="9">
         <v>5703.2</v>
       </c>
-      <c r="I254" s="6">
+      <c r="I254" s="9">
         <v>5703.2</v>
       </c>
       <c r="J254" s="6" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K254" s="6" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="L254" s="6" t="s">
         <v>186</v>
@@ -13384,22 +13388,22 @@
         <v>579</v>
       </c>
       <c r="E255" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="G255" s="6" t="s">
         <v>765</v>
       </c>
-      <c r="H255" s="6">
+      <c r="H255" s="9">
         <v>1448.1</v>
       </c>
-      <c r="I255" s="6">
+      <c r="I255" s="9">
         <v>1448.1</v>
       </c>
       <c r="J255" s="6" t="s">
+        <v>893</v>
+      </c>
+      <c r="K255" s="6" t="s">
         <v>894</v>
-      </c>
-      <c r="K255" s="6" t="s">
-        <v>895</v>
       </c>
       <c r="L255" s="6" t="s">
         <v>15</v>
@@ -13419,31 +13423,31 @@
         <v>759</v>
       </c>
       <c r="E256" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F256" s="6" t="s">
+        <v>895</v>
+      </c>
+      <c r="G256" s="6" t="s">
         <v>896</v>
       </c>
-      <c r="G256" s="6" t="s">
+      <c r="H256" s="9">
+        <v>1919.06</v>
+      </c>
+      <c r="I256" s="9">
+        <v>1919.06</v>
+      </c>
+      <c r="J256" s="6" t="s">
         <v>897</v>
       </c>
-      <c r="H256" s="6">
-        <v>1919.06</v>
-      </c>
-      <c r="I256" s="6">
-        <v>1919.06</v>
-      </c>
-      <c r="J256" s="6" t="s">
-        <v>898</v>
-      </c>
       <c r="K256" s="6" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="L256" s="6" t="s">
         <v>15</v>
       </c>
       <c r="M256" s="6" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="257" spans="1:13" s="6" customFormat="1" ht="25.5">
@@ -13457,31 +13461,31 @@
         <v>32</v>
       </c>
       <c r="E257" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F257" s="6" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="G257" s="6" t="s">
-        <v>1081</v>
-      </c>
-      <c r="H257" s="6">
+        <v>1080</v>
+      </c>
+      <c r="H257" s="9">
         <v>867.99</v>
       </c>
-      <c r="I257" s="6">
+      <c r="I257" s="9">
         <v>868.86</v>
       </c>
       <c r="J257" s="6" t="s">
+        <v>899</v>
+      </c>
+      <c r="K257" s="6" t="s">
         <v>900</v>
       </c>
-      <c r="K257" s="6" t="s">
-        <v>901</v>
-      </c>
       <c r="L257" s="6" t="s">
         <v>15</v>
       </c>
       <c r="M257" s="6" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="258" spans="1:13" s="6" customFormat="1">
@@ -13495,7 +13499,7 @@
         <v>208</v>
       </c>
       <c r="E258" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F258" s="6" t="s">
         <v>762</v>
@@ -13503,23 +13507,23 @@
       <c r="G258" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="H258" s="6">
+      <c r="H258" s="9">
         <v>17092.86</v>
       </c>
-      <c r="I258" s="6">
+      <c r="I258" s="9">
         <v>17092.86</v>
       </c>
       <c r="J258" s="6" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="K258" s="6" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="L258" s="6" t="s">
         <v>15</v>
       </c>
       <c r="M258" s="6" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="259" spans="1:13" s="6" customFormat="1" ht="25.5">
@@ -13533,7 +13537,7 @@
         <v>219</v>
       </c>
       <c r="E259" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F259" s="6" t="s">
         <v>409</v>
@@ -13541,23 +13545,23 @@
       <c r="G259" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="H259" s="6">
+      <c r="H259" s="9">
         <v>7450.32</v>
       </c>
-      <c r="I259" s="6">
+      <c r="I259" s="9">
         <v>7450.32</v>
       </c>
       <c r="J259" s="6" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="K259" s="6" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="L259" s="6" t="s">
         <v>15</v>
       </c>
       <c r="M259" s="6" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="260" spans="1:13" s="6" customFormat="1" ht="38.25">
@@ -13571,31 +13575,31 @@
         <v>127</v>
       </c>
       <c r="E260" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F260" s="6" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="G260" s="6" t="s">
-        <v>1082</v>
-      </c>
-      <c r="H260" s="6">
+        <v>1081</v>
+      </c>
+      <c r="H260" s="9">
         <v>1981</v>
       </c>
-      <c r="I260" s="6">
+      <c r="I260" s="9">
         <v>1981</v>
       </c>
       <c r="J260" s="6" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="K260" s="6" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="L260" s="6" t="s">
         <v>45</v>
       </c>
       <c r="M260" s="6" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="261" spans="1:13" s="6" customFormat="1">
@@ -13609,28 +13613,28 @@
         <v>22</v>
       </c>
       <c r="E261" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F261" s="6" t="s">
+        <v>906</v>
+      </c>
+      <c r="H261" s="9">
+        <v>1313.85</v>
+      </c>
+      <c r="I261" s="9">
+        <v>1313.85</v>
+      </c>
+      <c r="J261" s="6" t="s">
         <v>907</v>
       </c>
-      <c r="H261" s="6">
-        <v>1313.85</v>
-      </c>
-      <c r="I261" s="6">
-        <v>1313.85</v>
-      </c>
-      <c r="J261" s="6" t="s">
+      <c r="K261" s="6" t="s">
         <v>908</v>
       </c>
-      <c r="K261" s="6" t="s">
-        <v>909</v>
-      </c>
       <c r="L261" s="6" t="s">
         <v>15</v>
       </c>
       <c r="M261" s="6" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="262" spans="1:13" s="6" customFormat="1" ht="25.5">
@@ -13644,7 +13648,7 @@
         <v>6</v>
       </c>
       <c r="E262" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F262" s="6" t="s">
         <v>227</v>
@@ -13652,23 +13656,23 @@
       <c r="G262" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="H262" s="6">
+      <c r="H262" s="9">
         <v>1158.48</v>
       </c>
-      <c r="I262" s="6">
+      <c r="I262" s="9">
         <v>1158.48</v>
       </c>
       <c r="J262" s="6" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="K262" s="6" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="L262" s="6" t="s">
         <v>15</v>
       </c>
       <c r="M262" s="6" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="263" spans="1:13" s="6" customFormat="1" ht="25.5">
@@ -13682,28 +13686,28 @@
         <v>261</v>
       </c>
       <c r="E263" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="G263" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="H263" s="6">
+      <c r="H263" s="9">
         <v>1737.72</v>
       </c>
-      <c r="I263" s="6">
+      <c r="I263" s="9">
         <v>1737.72</v>
       </c>
       <c r="J263" s="6" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="K263" s="6" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="L263" s="6" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="M263" s="6" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="264" spans="1:13" s="6" customFormat="1">
@@ -13717,22 +13721,22 @@
         <v>22</v>
       </c>
       <c r="E264" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="G264" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H264" s="6">
+      <c r="H264" s="9">
         <v>1148.04</v>
       </c>
-      <c r="I264" s="6">
+      <c r="I264" s="9">
         <v>1148.04</v>
       </c>
       <c r="J264" s="6" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="K264" s="6" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="L264" s="6" t="s">
         <v>15</v>
@@ -13752,25 +13756,25 @@
         <v>118</v>
       </c>
       <c r="E265" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F265" s="6" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="G265" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="H265" s="6">
+      <c r="H265" s="9">
         <v>12090</v>
       </c>
-      <c r="I265" s="6">
+      <c r="I265" s="9">
         <v>12090</v>
       </c>
       <c r="J265" s="6" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="K265" s="6" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="L265" s="6" t="s">
         <v>15</v>
@@ -13790,7 +13794,7 @@
         <v>71</v>
       </c>
       <c r="D266" s="6" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E266" s="6" t="s">
         <v>73</v>
@@ -13799,19 +13803,19 @@
         <v>658</v>
       </c>
       <c r="G266" s="6" t="s">
-        <v>1036</v>
-      </c>
-      <c r="H266" s="6">
+        <v>1035</v>
+      </c>
+      <c r="H266" s="9">
         <v>753.01</v>
       </c>
-      <c r="I266" s="6">
+      <c r="I266" s="9">
         <v>753.01</v>
       </c>
       <c r="J266" s="6" t="s">
+        <v>914</v>
+      </c>
+      <c r="K266" s="6" t="s">
         <v>915</v>
-      </c>
-      <c r="K266" s="6" t="s">
-        <v>916</v>
       </c>
       <c r="L266" s="6" t="s">
         <v>15</v>
@@ -13828,34 +13832,34 @@
         <v>716</v>
       </c>
       <c r="C267" s="6" t="s">
+        <v>916</v>
+      </c>
+      <c r="E267" s="6" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F267" s="6" t="s">
+        <v>827</v>
+      </c>
+      <c r="G267" s="6" t="s">
         <v>917</v>
       </c>
-      <c r="E267" s="6" t="s">
-        <v>1023</v>
-      </c>
-      <c r="F267" s="6" t="s">
-        <v>828</v>
-      </c>
-      <c r="G267" s="6" t="s">
+      <c r="H267" s="9">
+        <v>1083.46</v>
+      </c>
+      <c r="I267" s="9">
+        <v>1083.46</v>
+      </c>
+      <c r="J267" s="6" t="s">
         <v>918</v>
       </c>
-      <c r="H267" s="6">
-        <v>1083.46</v>
-      </c>
-      <c r="I267" s="6">
-        <v>1083.46</v>
-      </c>
-      <c r="J267" s="6" t="s">
+      <c r="K267" s="6" t="s">
         <v>919</v>
       </c>
-      <c r="K267" s="6" t="s">
-        <v>920</v>
-      </c>
       <c r="L267" s="6" t="s">
         <v>15</v>
       </c>
       <c r="M267" s="6" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="268" spans="1:13" s="6" customFormat="1" ht="25.5">
@@ -13869,31 +13873,31 @@
         <v>6</v>
       </c>
       <c r="E268" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F268" s="6" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="G268" s="6" t="s">
         <v>653</v>
       </c>
-      <c r="H268" s="6">
+      <c r="H268" s="9">
         <v>2606.58</v>
       </c>
-      <c r="I268" s="6">
+      <c r="I268" s="9">
         <v>2606.58</v>
       </c>
       <c r="J268" s="6" t="s">
+        <v>921</v>
+      </c>
+      <c r="K268" s="6" t="s">
         <v>922</v>
-      </c>
-      <c r="K268" s="6" t="s">
-        <v>923</v>
       </c>
       <c r="L268" s="6" t="s">
         <v>45</v>
       </c>
       <c r="M268" s="6" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="269" spans="1:13" s="6" customFormat="1" ht="25.5">
@@ -13907,22 +13911,22 @@
         <v>232</v>
       </c>
       <c r="E269" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F269" s="6" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="G269" s="6" t="s">
+        <v>923</v>
+      </c>
+      <c r="H269" s="9">
+        <v>222.88</v>
+      </c>
+      <c r="I269" s="9">
+        <v>222.88</v>
+      </c>
+      <c r="J269" s="6" t="s">
         <v>924</v>
-      </c>
-      <c r="H269" s="6">
-        <v>222.88</v>
-      </c>
-      <c r="I269" s="6">
-        <v>222.88</v>
-      </c>
-      <c r="J269" s="6" t="s">
-        <v>925</v>
       </c>
       <c r="K269" s="6" t="s">
         <v>233</v>
@@ -13931,7 +13935,7 @@
         <v>15</v>
       </c>
       <c r="M269" s="6" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="270" spans="1:13" s="6" customFormat="1" ht="63.75">
@@ -13945,7 +13949,7 @@
         <v>28</v>
       </c>
       <c r="E270" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F270" s="6" t="s">
         <v>694</v>
@@ -13953,23 +13957,23 @@
       <c r="G270" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="H270" s="6">
+      <c r="H270" s="9">
         <v>350.44</v>
       </c>
-      <c r="I270" s="6">
+      <c r="I270" s="9">
         <v>350.44</v>
       </c>
       <c r="J270" s="6" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="K270" s="6" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="L270" s="6" t="s">
         <v>45</v>
       </c>
       <c r="M270" s="6" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="271" spans="1:13" s="6" customFormat="1" ht="25.5">
@@ -13983,28 +13987,28 @@
         <v>6</v>
       </c>
       <c r="E271" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="G271" s="6" t="s">
+        <v>926</v>
+      </c>
+      <c r="H271" s="9">
+        <v>172.32</v>
+      </c>
+      <c r="I271" s="9">
+        <v>173.77</v>
+      </c>
+      <c r="J271" s="6" t="s">
         <v>927</v>
       </c>
-      <c r="H271" s="6">
-        <v>172.32</v>
-      </c>
-      <c r="I271" s="6">
-        <v>173.77</v>
-      </c>
-      <c r="J271" s="6" t="s">
-        <v>928</v>
-      </c>
       <c r="K271" s="6" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="L271" s="6" t="s">
         <v>45</v>
       </c>
       <c r="M271" s="6" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="272" spans="1:13" s="6" customFormat="1">
@@ -14018,25 +14022,25 @@
         <v>269</v>
       </c>
       <c r="E272" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F272" s="6" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="G272" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="H272" s="6">
+      <c r="H272" s="9">
         <v>2974</v>
       </c>
-      <c r="I272" s="6">
+      <c r="I272" s="9">
         <v>2974</v>
       </c>
       <c r="J272" s="6" t="s">
+        <v>928</v>
+      </c>
+      <c r="K272" s="6" t="s">
         <v>929</v>
-      </c>
-      <c r="K272" s="6" t="s">
-        <v>930</v>
       </c>
       <c r="L272" s="6" t="s">
         <v>15</v>
@@ -14053,28 +14057,28 @@
         <v>402</v>
       </c>
       <c r="C273" s="6" t="s">
+        <v>930</v>
+      </c>
+      <c r="E273" s="6" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F273" s="6" t="s">
+        <v>898</v>
+      </c>
+      <c r="G273" s="6" t="s">
         <v>931</v>
       </c>
-      <c r="E273" s="6" t="s">
-        <v>1023</v>
-      </c>
-      <c r="F273" s="6" t="s">
-        <v>899</v>
-      </c>
-      <c r="G273" s="6" t="s">
+      <c r="H273" s="9">
+        <v>2867.24</v>
+      </c>
+      <c r="I273" s="9">
+        <v>2867.24</v>
+      </c>
+      <c r="J273" s="6" t="s">
         <v>932</v>
       </c>
-      <c r="H273" s="6">
-        <v>2867.24</v>
-      </c>
-      <c r="I273" s="6">
-        <v>2867.24</v>
-      </c>
-      <c r="J273" s="6" t="s">
+      <c r="K273" s="6" t="s">
         <v>933</v>
-      </c>
-      <c r="K273" s="6" t="s">
-        <v>934</v>
       </c>
       <c r="L273" s="6" t="s">
         <v>45</v>
@@ -14094,22 +14098,22 @@
         <v>624</v>
       </c>
       <c r="E274" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="G274" s="6" t="s">
-        <v>1083</v>
-      </c>
-      <c r="H274" s="6">
+        <v>1082</v>
+      </c>
+      <c r="H274" s="9">
         <v>3423.31</v>
       </c>
-      <c r="I274" s="6">
+      <c r="I274" s="9">
         <v>3475.44</v>
       </c>
       <c r="J274" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="K274" s="6" t="s">
         <v>778</v>
-      </c>
-      <c r="K274" s="6" t="s">
-        <v>779</v>
       </c>
       <c r="L274" s="6" t="s">
         <v>15</v>
@@ -14129,31 +14133,31 @@
         <v>43</v>
       </c>
       <c r="E275" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F275" s="6" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="G275" s="6" t="s">
-        <v>1038</v>
-      </c>
-      <c r="H275" s="6">
+        <v>1037</v>
+      </c>
+      <c r="H275" s="9">
         <v>63.72</v>
       </c>
-      <c r="I275" s="6">
+      <c r="I275" s="9">
         <v>63.72</v>
       </c>
       <c r="J275" s="6" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="K275" s="6" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="L275" s="6" t="s">
         <v>15</v>
       </c>
       <c r="M275" s="6" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="276" spans="1:13" s="6" customFormat="1" ht="25.5">
@@ -14167,25 +14171,25 @@
         <v>468</v>
       </c>
       <c r="E276" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F276" s="6" t="s">
+        <v>935</v>
+      </c>
+      <c r="G276" s="6" t="s">
         <v>936</v>
       </c>
-      <c r="G276" s="6" t="s">
+      <c r="H276" s="9">
+        <v>84.11</v>
+      </c>
+      <c r="I276" s="9">
+        <v>84.11</v>
+      </c>
+      <c r="J276" s="6" t="s">
         <v>937</v>
       </c>
-      <c r="H276" s="6">
-        <v>84.11</v>
-      </c>
-      <c r="I276" s="6">
-        <v>84.11</v>
-      </c>
-      <c r="J276" s="6" t="s">
+      <c r="K276" s="6" t="s">
         <v>938</v>
-      </c>
-      <c r="K276" s="6" t="s">
-        <v>939</v>
       </c>
       <c r="L276" s="6" t="s">
         <v>45</v>
@@ -14205,18 +14209,18 @@
         <v>286</v>
       </c>
       <c r="E277" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F277" s="6" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="G277" s="6" t="s">
-        <v>1084</v>
-      </c>
-      <c r="H277" s="6">
+        <v>1083</v>
+      </c>
+      <c r="H277" s="9">
         <v>296.86</v>
       </c>
-      <c r="I277" s="6">
+      <c r="I277" s="9">
         <v>296.86</v>
       </c>
       <c r="J277" s="6" t="s">
@@ -14243,25 +14247,25 @@
         <v>32</v>
       </c>
       <c r="E278" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F278" s="6" t="s">
         <v>693</v>
       </c>
       <c r="G278" s="6" t="s">
-        <v>1047</v>
-      </c>
-      <c r="H278" s="6">
+        <v>1046</v>
+      </c>
+      <c r="H278" s="9">
         <v>77.98</v>
       </c>
-      <c r="I278" s="6">
+      <c r="I278" s="9">
         <v>77.98</v>
       </c>
       <c r="J278" s="6" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="K278" s="6" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="L278" s="6" t="s">
         <v>15</v>
@@ -14281,25 +14285,25 @@
         <v>118</v>
       </c>
       <c r="E279" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F279" s="6" t="s">
         <v>693</v>
       </c>
       <c r="G279" s="6" t="s">
-        <v>1085</v>
-      </c>
-      <c r="H279" s="6">
+        <v>1084</v>
+      </c>
+      <c r="H279" s="9">
         <v>269.35000000000002</v>
       </c>
-      <c r="I279" s="6">
+      <c r="I279" s="9">
         <v>269.35000000000002</v>
       </c>
       <c r="J279" s="6" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="K279" s="6" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="L279" s="6" t="s">
         <v>15</v>
@@ -14319,28 +14323,28 @@
         <v>71</v>
       </c>
       <c r="D280" s="6" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E280" s="6" t="s">
         <v>73</v>
       </c>
       <c r="F280" s="6" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="G280" s="6" t="s">
+        <v>942</v>
+      </c>
+      <c r="H280" s="9">
+        <v>753.01</v>
+      </c>
+      <c r="I280" s="9">
+        <v>753.01</v>
+      </c>
+      <c r="J280" s="6" t="s">
         <v>943</v>
       </c>
-      <c r="H280" s="6">
-        <v>753.01</v>
-      </c>
-      <c r="I280" s="6">
-        <v>753.01</v>
-      </c>
-      <c r="J280" s="6" t="s">
-        <v>944</v>
-      </c>
       <c r="K280" s="6" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="L280" s="6" t="s">
         <v>15</v>
@@ -14360,28 +14364,28 @@
         <v>71</v>
       </c>
       <c r="D281" s="6" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="E281" s="6" t="s">
         <v>73</v>
       </c>
       <c r="F281" s="6" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="G281" s="6" t="s">
+        <v>945</v>
+      </c>
+      <c r="H281" s="9">
+        <v>724.05</v>
+      </c>
+      <c r="I281" s="9">
+        <v>724.05</v>
+      </c>
+      <c r="J281" s="6" t="s">
         <v>946</v>
       </c>
-      <c r="H281" s="6">
-        <v>724.05</v>
-      </c>
-      <c r="I281" s="6">
-        <v>724.05</v>
-      </c>
-      <c r="J281" s="6" t="s">
-        <v>947</v>
-      </c>
       <c r="K281" s="6" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="L281" s="6" t="s">
         <v>15</v>
@@ -14401,28 +14405,28 @@
         <v>71</v>
       </c>
       <c r="D282" s="6" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E282" s="6" t="s">
         <v>73</v>
       </c>
       <c r="F282" s="6" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="G282" s="6" t="s">
+        <v>948</v>
+      </c>
+      <c r="H282" s="9">
+        <v>521.32000000000005</v>
+      </c>
+      <c r="I282" s="9">
+        <v>521.32000000000005</v>
+      </c>
+      <c r="J282" s="6" t="s">
         <v>949</v>
       </c>
-      <c r="H282" s="6">
-        <v>521.32000000000005</v>
-      </c>
-      <c r="I282" s="6">
-        <v>521.32000000000005</v>
-      </c>
-      <c r="J282" s="6" t="s">
-        <v>950</v>
-      </c>
       <c r="K282" s="6" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="L282" s="6" t="s">
         <v>15</v>
@@ -14442,25 +14446,25 @@
         <v>6</v>
       </c>
       <c r="E283" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F283" s="6" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="G283" s="6" t="s">
-        <v>951</v>
-      </c>
-      <c r="H283" s="6">
+        <v>950</v>
+      </c>
+      <c r="H283" s="9">
         <v>1442.31</v>
       </c>
-      <c r="I283" s="6">
+      <c r="I283" s="9">
         <v>1442.31</v>
       </c>
       <c r="J283" s="6" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="K283" s="6" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="L283" s="6" t="s">
         <v>15</v>
@@ -14480,31 +14484,31 @@
         <v>269</v>
       </c>
       <c r="E284" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F284" s="6" t="s">
         <v>227</v>
       </c>
       <c r="G284" s="6" t="s">
-        <v>952</v>
-      </c>
-      <c r="H284" s="6">
+        <v>951</v>
+      </c>
+      <c r="H284" s="9">
         <v>842.79</v>
       </c>
-      <c r="I284" s="6">
+      <c r="I284" s="9">
         <v>842.79</v>
       </c>
       <c r="J284" s="6" t="s">
+        <v>830</v>
+      </c>
+      <c r="K284" s="6" t="s">
         <v>831</v>
       </c>
-      <c r="K284" s="6" t="s">
-        <v>832</v>
-      </c>
       <c r="L284" s="6" t="s">
         <v>15</v>
       </c>
       <c r="M284" s="6" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="285" spans="1:13" s="6" customFormat="1">
@@ -14518,28 +14522,28 @@
         <v>147</v>
       </c>
       <c r="E285" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="G285" s="6" t="s">
+        <v>952</v>
+      </c>
+      <c r="H285" s="9">
+        <v>579.24</v>
+      </c>
+      <c r="I285" s="9">
+        <v>579.24</v>
+      </c>
+      <c r="J285" s="6" t="s">
         <v>953</v>
       </c>
-      <c r="H285" s="6">
-        <v>579.24</v>
-      </c>
-      <c r="I285" s="6">
-        <v>579.24</v>
-      </c>
-      <c r="J285" s="6" t="s">
-        <v>954</v>
-      </c>
       <c r="K285" s="6" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="L285" s="6" t="s">
         <v>15</v>
       </c>
       <c r="M285" s="6" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="286" spans="1:13" s="6" customFormat="1" ht="38.25">
@@ -14559,28 +14563,28 @@
         <v>73</v>
       </c>
       <c r="F286" s="6" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="G286" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="H286" s="6" t="s">
+      <c r="H286" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I286" s="6">
+      <c r="I286" s="9">
         <v>5000</v>
       </c>
       <c r="J286" s="6" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="K286" s="6" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="L286" s="6" t="s">
         <v>15</v>
       </c>
       <c r="M286" s="6" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="287" spans="1:13" s="6" customFormat="1" ht="25.5">
@@ -14594,25 +14598,25 @@
         <v>123</v>
       </c>
       <c r="E287" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F287" s="6" t="s">
         <v>602</v>
       </c>
       <c r="G287" s="6" t="s">
+        <v>1086</v>
+      </c>
+      <c r="H287" s="9">
+        <v>868.86</v>
+      </c>
+      <c r="I287" s="9">
+        <v>868.86</v>
+      </c>
+      <c r="J287" s="6" t="s">
         <v>1087</v>
       </c>
-      <c r="H287" s="6">
-        <v>868.86</v>
-      </c>
-      <c r="I287" s="6">
-        <v>868.86</v>
-      </c>
-      <c r="J287" s="6" t="s">
-        <v>1088</v>
-      </c>
       <c r="K287" s="6" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="L287" s="6" t="s">
         <v>45</v>
@@ -14632,28 +14636,28 @@
         <v>6</v>
       </c>
       <c r="E288" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="G288" s="6" t="s">
         <v>765</v>
       </c>
-      <c r="H288" s="6">
+      <c r="H288" s="9">
         <v>289.62</v>
       </c>
-      <c r="I288" s="6">
+      <c r="I288" s="9">
         <v>289.62</v>
       </c>
       <c r="J288" s="6" t="s">
+        <v>955</v>
+      </c>
+      <c r="K288" s="6" t="s">
         <v>956</v>
       </c>
-      <c r="K288" s="6" t="s">
-        <v>957</v>
-      </c>
       <c r="L288" s="6" t="s">
         <v>15</v>
       </c>
       <c r="M288" s="6" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="289" spans="1:13" s="6" customFormat="1">
@@ -14667,25 +14671,25 @@
         <v>687</v>
       </c>
       <c r="E289" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F289" s="6" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="G289" s="6" t="s">
-        <v>1089</v>
-      </c>
-      <c r="H289" s="6">
+        <v>1088</v>
+      </c>
+      <c r="H289" s="9">
         <v>10143</v>
       </c>
-      <c r="I289" s="6">
+      <c r="I289" s="9">
         <v>10143</v>
       </c>
       <c r="J289" s="6" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="K289" s="6" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="L289" s="6" t="s">
         <v>45</v>
@@ -14705,22 +14709,22 @@
         <v>232</v>
       </c>
       <c r="E290" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F290" s="6" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="G290" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="H290" s="9">
+        <v>77.91</v>
+      </c>
+      <c r="I290" s="9">
+        <v>77.91</v>
+      </c>
+      <c r="J290" s="6" t="s">
         <v>1090</v>
-      </c>
-      <c r="H290" s="6">
-        <v>77.91</v>
-      </c>
-      <c r="I290" s="6">
-        <v>77.91</v>
-      </c>
-      <c r="J290" s="6" t="s">
-        <v>1091</v>
       </c>
       <c r="K290" s="6" t="s">
         <v>233</v>
@@ -14729,7 +14733,7 @@
         <v>15</v>
       </c>
       <c r="M290" s="6" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="291" spans="1:13" s="6" customFormat="1">
@@ -14743,31 +14747,31 @@
         <v>6</v>
       </c>
       <c r="E291" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F291" s="6" t="s">
         <v>602</v>
       </c>
       <c r="G291" s="6" t="s">
+        <v>959</v>
+      </c>
+      <c r="H291" s="9">
+        <v>1592.91</v>
+      </c>
+      <c r="I291" s="9">
+        <v>1592.91</v>
+      </c>
+      <c r="J291" s="6" t="s">
         <v>960</v>
       </c>
-      <c r="H291" s="6">
-        <v>1592.91</v>
-      </c>
-      <c r="I291" s="6">
-        <v>1592.91</v>
-      </c>
-      <c r="J291" s="6" t="s">
-        <v>961</v>
-      </c>
       <c r="K291" s="6" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="L291" s="6" t="s">
         <v>45</v>
       </c>
       <c r="M291" s="6" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="292" spans="1:13" s="6" customFormat="1" ht="25.5">
@@ -14778,34 +14782,34 @@
         <v>402</v>
       </c>
       <c r="C292" s="6" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E292" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F292" s="6" t="s">
         <v>227</v>
       </c>
       <c r="G292" s="6" t="s">
+        <v>961</v>
+      </c>
+      <c r="H292" s="9">
+        <v>2867.24</v>
+      </c>
+      <c r="I292" s="9">
+        <v>2867.24</v>
+      </c>
+      <c r="J292" s="6" t="s">
         <v>962</v>
       </c>
-      <c r="H292" s="6">
-        <v>2867.24</v>
-      </c>
-      <c r="I292" s="6">
-        <v>2867.24</v>
-      </c>
-      <c r="J292" s="6" t="s">
-        <v>963</v>
-      </c>
       <c r="K292" s="6" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="L292" s="6" t="s">
         <v>45</v>
       </c>
       <c r="M292" s="6" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="293" spans="1:13" s="6" customFormat="1" ht="25.5">
@@ -14819,31 +14823,31 @@
         <v>17</v>
       </c>
       <c r="E293" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F293" s="6" t="s">
         <v>227</v>
       </c>
       <c r="G293" s="6" t="s">
+        <v>963</v>
+      </c>
+      <c r="H293" s="9">
+        <v>1448.1</v>
+      </c>
+      <c r="I293" s="9">
+        <v>1448.1</v>
+      </c>
+      <c r="J293" s="6" t="s">
         <v>964</v>
       </c>
-      <c r="H293" s="6">
-        <v>1448.1</v>
-      </c>
-      <c r="I293" s="6">
-        <v>1448.1</v>
-      </c>
-      <c r="J293" s="6" t="s">
+      <c r="K293" s="6" t="s">
         <v>965</v>
-      </c>
-      <c r="K293" s="6" t="s">
-        <v>966</v>
       </c>
       <c r="L293" s="6" t="s">
         <v>45</v>
       </c>
       <c r="M293" s="6" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="294" spans="1:13" s="6" customFormat="1">
@@ -14857,31 +14861,31 @@
         <v>223</v>
       </c>
       <c r="E294" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F294" s="6" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="G294" s="6" t="s">
+        <v>966</v>
+      </c>
+      <c r="H294" s="9">
+        <v>4998.3999999999996</v>
+      </c>
+      <c r="I294" s="9">
+        <v>4998.3999999999996</v>
+      </c>
+      <c r="J294" s="6" t="s">
         <v>967</v>
       </c>
-      <c r="H294" s="6">
-        <v>4998.3999999999996</v>
-      </c>
-      <c r="I294" s="6">
-        <v>4998.3999999999996</v>
-      </c>
-      <c r="J294" s="6" t="s">
-        <v>968</v>
-      </c>
       <c r="K294" s="6" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="L294" s="6" t="s">
         <v>15</v>
       </c>
       <c r="M294" s="6" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="295" spans="1:13" s="6" customFormat="1">
@@ -14895,25 +14899,25 @@
         <v>284</v>
       </c>
       <c r="E295" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F295" s="6" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G295" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="H295" s="6">
+      <c r="H295" s="9">
         <v>500</v>
       </c>
-      <c r="I295" s="6">
+      <c r="I295" s="9">
         <v>500</v>
       </c>
       <c r="J295" s="6" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="K295" s="6" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="L295" s="6" t="s">
         <v>15</v>
@@ -14933,28 +14937,28 @@
         <v>71</v>
       </c>
       <c r="D296" s="6" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="E296" s="6" t="s">
         <v>73</v>
       </c>
       <c r="F296" s="6" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="G296" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="H296" s="6">
+      <c r="H296" s="9">
         <v>10292.33</v>
       </c>
-      <c r="I296" s="6">
+      <c r="I296" s="9">
         <v>10292.33</v>
       </c>
       <c r="J296" s="6" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="K296" s="6" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="L296" s="6" t="s">
         <v>15</v>
@@ -14974,22 +14978,22 @@
         <v>232</v>
       </c>
       <c r="E297" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F297" s="6" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="G297" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="H297" s="9">
+        <v>688.14</v>
+      </c>
+      <c r="I297" s="9">
+        <v>688.14</v>
+      </c>
+      <c r="J297" s="6" t="s">
         <v>973</v>
-      </c>
-      <c r="H297" s="6">
-        <v>688.14</v>
-      </c>
-      <c r="I297" s="6">
-        <v>688.14</v>
-      </c>
-      <c r="J297" s="6" t="s">
-        <v>974</v>
       </c>
       <c r="K297" s="6" t="s">
         <v>233</v>
@@ -15012,25 +15016,25 @@
         <v>254</v>
       </c>
       <c r="E298" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F298" s="6" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="G298" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="H298" s="6">
+      <c r="H298" s="9">
         <v>2800</v>
       </c>
-      <c r="I298" s="6">
+      <c r="I298" s="9">
         <v>2800</v>
       </c>
       <c r="J298" s="6" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="K298" s="6" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="L298" s="6" t="s">
         <v>15</v>
@@ -15050,31 +15054,31 @@
         <v>32</v>
       </c>
       <c r="E299" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F299" s="6" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="G299" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="H299" s="6">
+      <c r="H299" s="9">
         <v>119.95</v>
       </c>
-      <c r="I299" s="6">
+      <c r="I299" s="9">
         <v>119.95</v>
       </c>
       <c r="J299" s="6" t="s">
+        <v>976</v>
+      </c>
+      <c r="K299" s="6" t="s">
         <v>977</v>
       </c>
-      <c r="K299" s="6" t="s">
+      <c r="L299" s="6" t="s">
         <v>978</v>
       </c>
-      <c r="L299" s="6" t="s">
-        <v>979</v>
-      </c>
       <c r="M299" s="6" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="300" spans="1:13" s="6" customFormat="1" ht="25.5">
@@ -15088,19 +15092,19 @@
         <v>232</v>
       </c>
       <c r="E300" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="G300" s="6" t="s">
-        <v>870</v>
-      </c>
-      <c r="H300" s="6">
+        <v>869</v>
+      </c>
+      <c r="H300" s="9">
         <v>1641.44</v>
       </c>
-      <c r="I300" s="6">
+      <c r="I300" s="9">
         <v>1641.44</v>
       </c>
       <c r="J300" s="6" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="K300" s="6" t="s">
         <v>233</v>
@@ -15109,7 +15113,7 @@
         <v>15</v>
       </c>
       <c r="M300" s="6" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="301" spans="1:13" s="6" customFormat="1" ht="25.5">
@@ -15123,7 +15127,7 @@
         <v>247</v>
       </c>
       <c r="E301" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F301" s="6" t="s">
         <v>227</v>
@@ -15131,23 +15135,23 @@
       <c r="G301" s="6" t="s">
         <v>770</v>
       </c>
-      <c r="H301" s="6">
+      <c r="H301" s="9">
         <v>260.66000000000003</v>
       </c>
-      <c r="I301" s="6">
+      <c r="I301" s="9">
         <v>260.66000000000003</v>
       </c>
       <c r="J301" s="6" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="K301" s="6" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="L301" s="6" t="s">
         <v>15</v>
       </c>
       <c r="M301" s="6" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="302" spans="1:13" s="6" customFormat="1" ht="25.5">
@@ -15161,7 +15165,7 @@
         <v>6</v>
       </c>
       <c r="E302" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F302" s="6" t="s">
         <v>302</v>
@@ -15169,23 +15173,23 @@
       <c r="G302" s="6" t="s">
         <v>727</v>
       </c>
-      <c r="H302" s="6">
+      <c r="H302" s="9">
         <v>796.45</v>
       </c>
-      <c r="I302" s="6">
+      <c r="I302" s="9">
         <v>796.45</v>
       </c>
       <c r="J302" s="6" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="K302" s="6" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="L302" s="6" t="s">
         <v>15</v>
       </c>
       <c r="M302" s="6" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="303" spans="1:13" s="6" customFormat="1">
@@ -15199,7 +15203,7 @@
         <v>98</v>
       </c>
       <c r="E303" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F303" s="6" t="s">
         <v>693</v>
@@ -15207,23 +15211,23 @@
       <c r="G303" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="H303" s="6">
+      <c r="H303" s="9">
         <v>10000</v>
       </c>
-      <c r="I303" s="6">
+      <c r="I303" s="9">
         <v>10000</v>
       </c>
       <c r="J303" s="6" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="K303" s="6" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="L303" s="6" t="s">
         <v>15</v>
       </c>
       <c r="M303" s="6" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="304" spans="1:13" s="6" customFormat="1" ht="25.5">
@@ -15248,23 +15252,23 @@
       <c r="G304" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="H304" s="6">
+      <c r="H304" s="9">
         <v>24993.759999999998</v>
       </c>
-      <c r="I304" s="6">
+      <c r="I304" s="9">
         <v>24993.759999999998</v>
       </c>
       <c r="J304" s="6" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="K304" s="6" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="L304" s="6" t="s">
         <v>15</v>
       </c>
       <c r="M304" s="6" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="305" spans="1:13" s="6" customFormat="1" ht="25.5">
@@ -15278,31 +15282,31 @@
         <v>468</v>
       </c>
       <c r="E305" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F305" s="6" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="G305" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="H305" s="6">
+      <c r="H305" s="9">
         <v>11.56</v>
       </c>
-      <c r="I305" s="6">
+      <c r="I305" s="9">
         <v>11.56</v>
       </c>
       <c r="J305" s="6" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="K305" s="6" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="L305" s="6" t="s">
         <v>45</v>
       </c>
       <c r="M305" s="6" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="306" spans="1:13" s="6" customFormat="1" ht="25.5">
@@ -15316,15 +15320,15 @@
         <v>32</v>
       </c>
       <c r="E306" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="G306" s="6" t="s">
-        <v>1047</v>
-      </c>
-      <c r="H306" s="6">
+        <v>1046</v>
+      </c>
+      <c r="H306" s="9">
         <v>9999.99</v>
       </c>
-      <c r="I306" s="6">
+      <c r="I306" s="9">
         <v>9999.99</v>
       </c>
       <c r="J306" s="6" t="s">
@@ -15337,7 +15341,7 @@
         <v>45</v>
       </c>
       <c r="M306" s="6" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="307" spans="1:13" s="6" customFormat="1">
@@ -15351,7 +15355,7 @@
         <v>157</v>
       </c>
       <c r="E307" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F307" s="6" t="s">
         <v>556</v>
@@ -15359,23 +15363,23 @@
       <c r="G307" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="H307" s="6">
+      <c r="H307" s="9">
         <v>1990</v>
       </c>
-      <c r="I307" s="6">
+      <c r="I307" s="9">
         <v>1990</v>
       </c>
       <c r="J307" s="6" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="K307" s="6" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="L307" s="6" t="s">
         <v>15</v>
       </c>
       <c r="M307" s="6" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="308" spans="1:13" s="6" customFormat="1" ht="25.5">
@@ -15389,7 +15393,7 @@
         <v>71</v>
       </c>
       <c r="D308" s="6" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E308" s="6" t="s">
         <v>73</v>
@@ -15398,25 +15402,25 @@
         <v>370</v>
       </c>
       <c r="G308" s="6" t="s">
-        <v>1036</v>
-      </c>
-      <c r="H308" s="6">
+        <v>1035</v>
+      </c>
+      <c r="H308" s="9">
         <v>1448.1</v>
       </c>
-      <c r="I308" s="6">
+      <c r="I308" s="9">
         <v>1448.1</v>
       </c>
       <c r="J308" s="6" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="K308" s="6" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="L308" s="6" t="s">
         <v>15</v>
       </c>
       <c r="M308" s="6" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="309" spans="1:13" s="6" customFormat="1" ht="38.25">
@@ -15430,34 +15434,34 @@
         <v>71</v>
       </c>
       <c r="D309" s="6" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E309" s="6" t="s">
         <v>73</v>
       </c>
       <c r="F309" s="6" t="s">
+        <v>988</v>
+      </c>
+      <c r="G309" s="6" t="s">
+        <v>1035</v>
+      </c>
+      <c r="H309" s="9">
+        <v>1448.1</v>
+      </c>
+      <c r="I309" s="9">
+        <v>1448.1</v>
+      </c>
+      <c r="J309" s="6" t="s">
         <v>989</v>
       </c>
-      <c r="G309" s="6" t="s">
-        <v>1036</v>
-      </c>
-      <c r="H309" s="6">
-        <v>1448.1</v>
-      </c>
-      <c r="I309" s="6">
-        <v>1448.1</v>
-      </c>
-      <c r="J309" s="6" t="s">
+      <c r="K309" s="6" t="s">
         <v>990</v>
       </c>
-      <c r="K309" s="6" t="s">
-        <v>991</v>
-      </c>
       <c r="L309" s="6" t="s">
         <v>15</v>
       </c>
       <c r="M309" s="6" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="310" spans="1:13" s="6" customFormat="1" ht="63.75">
@@ -15471,7 +15475,7 @@
         <v>71</v>
       </c>
       <c r="D310" s="6" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="E310" s="6" t="s">
         <v>73</v>
@@ -15480,25 +15484,25 @@
         <v>370</v>
       </c>
       <c r="G310" s="6" t="s">
-        <v>1034</v>
-      </c>
-      <c r="H310" s="6">
+        <v>1033</v>
+      </c>
+      <c r="H310" s="9">
         <v>868.85</v>
       </c>
-      <c r="I310" s="6">
+      <c r="I310" s="9">
         <v>868.85</v>
       </c>
       <c r="J310" s="6" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="K310" s="6" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="L310" s="6" t="s">
         <v>15</v>
       </c>
       <c r="M310" s="6" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="311" spans="1:13" s="6" customFormat="1">
@@ -15512,22 +15516,22 @@
         <v>235</v>
       </c>
       <c r="E311" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="G311" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="H311" s="6">
+      <c r="H311" s="9">
         <v>773.29</v>
       </c>
-      <c r="I311" s="6">
+      <c r="I311" s="9">
         <v>773.29</v>
       </c>
       <c r="J311" s="6" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="K311" s="6" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="L311" s="6" t="s">
         <v>15</v>
@@ -15547,28 +15551,28 @@
         <v>71</v>
       </c>
       <c r="D312" s="6" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="E312" s="6" t="s">
         <v>73</v>
       </c>
       <c r="F312" s="6" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="G312" s="6" t="s">
-        <v>949</v>
-      </c>
-      <c r="H312" s="6">
+        <v>948</v>
+      </c>
+      <c r="H312" s="9">
         <v>289.62</v>
       </c>
-      <c r="I312" s="6">
+      <c r="I312" s="9">
         <v>289.62</v>
       </c>
       <c r="J312" s="6" t="s">
+        <v>995</v>
+      </c>
+      <c r="K312" s="6" t="s">
         <v>996</v>
-      </c>
-      <c r="K312" s="6" t="s">
-        <v>997</v>
       </c>
       <c r="L312" s="6" t="s">
         <v>15</v>
@@ -15588,7 +15592,7 @@
         <v>71</v>
       </c>
       <c r="D313" s="6" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="E313" s="6" t="s">
         <v>73</v>
@@ -15597,19 +15601,19 @@
         <v>370</v>
       </c>
       <c r="G313" s="6" t="s">
-        <v>1036</v>
-      </c>
-      <c r="H313" s="6">
+        <v>1035</v>
+      </c>
+      <c r="H313" s="9">
         <v>289.62</v>
       </c>
-      <c r="I313" s="6">
+      <c r="I313" s="9">
         <v>289.62</v>
       </c>
       <c r="J313" s="6" t="s">
+        <v>998</v>
+      </c>
+      <c r="K313" s="6" t="s">
         <v>999</v>
-      </c>
-      <c r="K313" s="6" t="s">
-        <v>1000</v>
       </c>
       <c r="L313" s="6" t="s">
         <v>15</v>
@@ -15629,25 +15633,25 @@
         <v>28</v>
       </c>
       <c r="E314" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F314" s="6" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="G314" s="6" t="s">
+        <v>1000</v>
+      </c>
+      <c r="H314" s="9">
+        <v>2867.24</v>
+      </c>
+      <c r="I314" s="9">
+        <v>2867.24</v>
+      </c>
+      <c r="J314" s="6" t="s">
         <v>1001</v>
       </c>
-      <c r="H314" s="6">
-        <v>2867.24</v>
-      </c>
-      <c r="I314" s="6">
-        <v>2867.24</v>
-      </c>
-      <c r="J314" s="6" t="s">
-        <v>1002</v>
-      </c>
       <c r="K314" s="6" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="L314" s="6" t="s">
         <v>15</v>
@@ -15667,31 +15671,31 @@
         <v>254</v>
       </c>
       <c r="E315" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F315" s="6" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="G315" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="H315" s="6">
+      <c r="H315" s="9">
         <v>1821.6</v>
       </c>
-      <c r="I315" s="6">
+      <c r="I315" s="9">
         <v>1821.6</v>
       </c>
       <c r="J315" s="6" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="K315" s="6" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="L315" s="6" t="s">
         <v>15</v>
       </c>
       <c r="M315" s="6" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="316" spans="1:13" s="6" customFormat="1" ht="25.5">
@@ -15705,28 +15709,28 @@
         <v>71</v>
       </c>
       <c r="D316" s="6" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E316" s="6" t="s">
         <v>73</v>
       </c>
       <c r="F316" s="6" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="G316" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="H316" s="6">
+      <c r="H316" s="9">
         <v>6997.43</v>
       </c>
-      <c r="I316" s="6">
+      <c r="I316" s="9">
         <v>6997.43</v>
       </c>
       <c r="J316" s="6" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="K316" s="6" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="L316" s="6" t="s">
         <v>15</v>
@@ -15746,31 +15750,31 @@
         <v>22</v>
       </c>
       <c r="E317" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F317" s="6" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="G317" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="H317" s="6">
+      <c r="H317" s="9">
         <v>11518.33</v>
       </c>
-      <c r="I317" s="6">
+      <c r="I317" s="9">
         <v>11518.33</v>
       </c>
       <c r="J317" s="6" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="K317" s="6" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="L317" s="6" t="s">
         <v>15</v>
       </c>
       <c r="M317" s="6" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="318" spans="1:13" s="6" customFormat="1" ht="25.5">
@@ -15784,31 +15788,31 @@
         <v>94</v>
       </c>
       <c r="E318" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F318" s="6" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="G318" s="6" t="s">
-        <v>1047</v>
-      </c>
-      <c r="H318" s="6">
+        <v>1046</v>
+      </c>
+      <c r="H318" s="9">
         <v>214.32</v>
       </c>
-      <c r="I318" s="6">
+      <c r="I318" s="9">
         <v>214.32</v>
       </c>
       <c r="J318" s="6" t="s">
+        <v>1007</v>
+      </c>
+      <c r="K318" s="6" t="s">
         <v>1008</v>
-      </c>
-      <c r="K318" s="6" t="s">
-        <v>1009</v>
       </c>
       <c r="L318" s="6" t="s">
         <v>45</v>
       </c>
       <c r="M318" s="6" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
   </sheetData>
@@ -15843,40 +15847,40 @@
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="78.75">
       <c r="A1" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1025</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>1026</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1015</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1013</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1014</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>1016</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>1017</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>1019</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>1020</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>1027</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>1028</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" ht="38.25">
@@ -15931,7 +15935,7 @@
         <v>752</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>753</v>
@@ -15963,7 +15967,7 @@
         <v>28</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>51</v>
@@ -15998,7 +16002,7 @@
         <v>28</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>56</v>
@@ -16033,7 +16037,7 @@
         <v>28</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>56</v>
@@ -16068,7 +16072,7 @@
         <v>28</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>51</v>
@@ -16103,7 +16107,7 @@
         <v>28</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>51</v>
@@ -16138,7 +16142,7 @@
         <v>28</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>51</v>
@@ -16173,7 +16177,7 @@
         <v>28</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>51</v>
@@ -16208,7 +16212,7 @@
         <v>28</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>51</v>
@@ -16243,7 +16247,7 @@
         <v>28</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>66</v>
@@ -16278,7 +16282,7 @@
         <v>28</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>51</v>
@@ -16313,7 +16317,7 @@
         <v>28</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>56</v>
@@ -16348,7 +16352,7 @@
         <v>28</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>141</v>
@@ -16383,7 +16387,7 @@
         <v>28</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>29</v>
@@ -16418,7 +16422,7 @@
         <v>248</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>165</v>
@@ -16453,7 +16457,7 @@
         <v>28</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>678</v>
@@ -16488,7 +16492,7 @@
         <v>269</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>82</v>
@@ -16523,7 +16527,7 @@
         <v>269</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>270</v>
@@ -16555,7 +16559,7 @@
         <v>223</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>384</v>
@@ -16590,7 +16594,7 @@
         <v>94</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>427</v>
@@ -16625,7 +16629,7 @@
         <v>223</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>107</v>
@@ -16660,7 +16664,7 @@
         <v>94</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>476</v>
@@ -16695,7 +16699,7 @@
         <v>223</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>385</v>
@@ -16727,10 +16731,10 @@
         <v>687</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>688</v>
@@ -16739,10 +16743,10 @@
         <v>1067.0899999999999</v>
       </c>
       <c r="I26" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="J26" s="2" t="s">
         <v>817</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>818</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>186</v>
@@ -16762,22 +16766,22 @@
         <v>687</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>439</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="H27" s="3">
         <v>7583.18</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>186</v>
@@ -16797,22 +16801,22 @@
         <v>687</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="H28" s="3">
         <v>1039.4100000000001</v>
       </c>
       <c r="I28" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="J28" s="2" t="s">
         <v>823</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>824</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>186</v>
@@ -16832,22 +16836,22 @@
         <v>687</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>439</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="H29" s="3">
         <v>7004.43</v>
       </c>
       <c r="I29" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="J29" s="2" t="s">
         <v>826</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>827</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>55</v>
@@ -16867,7 +16871,7 @@
         <v>269</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>270</v>
@@ -16876,10 +16880,10 @@
         <v>624.20000000000005</v>
       </c>
       <c r="I30" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="J30" s="2" t="s">
         <v>831</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>832</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>55</v>
@@ -16899,10 +16903,10 @@
         <v>269</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>270</v>
@@ -16911,10 +16915,10 @@
         <v>5703.2</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>55</v>

--- a/Mazos_vertes_pirkimai_2014.xlsx
+++ b/Mazos_vertes_pirkimai_2014.xlsx
@@ -3697,7 +3697,7 @@
   <dimension ref="A1:M318"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:I1048576"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
